--- a/trunk/src/Trike.xlsx
+++ b/trunk/src/Trike.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-30780" yWindow="-440" windowWidth="26300" windowHeight="16560" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15300" tabRatio="500" firstSheet="7" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="System Overview" sheetId="16" r:id="rId1"/>
@@ -140,9 +140,9 @@
     <definedName name="Software" localSheetId="12">'[1]Data Type Reference'!$K$4:$O$4</definedName>
     <definedName name="UseCaseNumber">OFFSET('Use Case Index'!$P$5, 0, 0, (ROWS('Use Case Index'!$P$5:$P$1001)-COUNTBLANK('Use Case Index'!$P$5:$P$1001)), 1)</definedName>
   </definedNames>
-  <calcPr calcId="130407" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
@@ -1450,7 +1450,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="374">
   <si>
     <t>C</t>
     <phoneticPr fontId="10" type="noConversion"/>
@@ -2879,12 +2879,15 @@
     <t>Use Cases or Sequence Diagrams</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>OSI Layer</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -2981,6 +2984,18 @@
       <sz val="14"/>
       <name val="Verdana"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Verdana"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -3045,64 +3060,64 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -3110,46 +3125,46 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -3157,10 +3172,10 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -3169,10 +3184,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3181,35 +3196,35 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -3218,7 +3233,7 @@
     </border>
     <border>
       <left style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -3227,62 +3242,62 @@
     </border>
     <border>
       <left style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="dashed">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="dashed">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="dashed">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="dashed">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -3292,99 +3307,99 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="dashed">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -3392,10 +3407,10 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -3403,38 +3418,38 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="mediumDashed">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="mediumDashed">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -3442,35 +3457,39 @@
     </border>
     <border>
       <left style="mediumDashed">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="mediumDashed">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="253">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3920,8 +3939,31 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3971,29 +4013,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4006,35 +4025,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4051,15 +4055,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -4069,17 +4064,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4181,10 +4200,158 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="163">
+  <dxfs count="167">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="44"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="44"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="44"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="44"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="44"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="44"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="8"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="44"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="44"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="8"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="44"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="44"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="8"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="44"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="44"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -4814,90 +4981,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="44"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="44"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="8"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="44"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="44"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="8"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="44"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="44"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="8"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="44"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="44"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -6504,7 +6587,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -9049,14 +9132,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="2" max="2" width="64.42578125" customWidth="1"/>
@@ -9077,13 +9160,13 @@
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="B1:B2">
-    <cfRule type="expression" dxfId="162" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="166" priority="0" stopIfTrue="1">
       <formula>B1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -9091,7 +9174,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T56"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="150" workbookViewId="0">
@@ -9100,7 +9183,7 @@
       <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
@@ -9192,34 +9275,34 @@
       <c r="T2" s="134"/>
     </row>
     <row r="3" spans="1:20" ht="47" hidden="1" customHeight="1">
-      <c r="A3" s="163" t="s">
+      <c r="A3" s="170" t="s">
         <v>289</v>
       </c>
-      <c r="B3" s="181"/>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
+      <c r="B3" s="164"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
       <c r="J3" s="192"/>
-      <c r="K3" s="163" t="s">
+      <c r="K3" s="170" t="s">
         <v>293</v>
       </c>
       <c r="L3" s="192"/>
       <c r="M3" s="135"/>
-      <c r="N3" s="163" t="s">
+      <c r="N3" s="170" t="s">
         <v>292</v>
       </c>
-      <c r="O3" s="178"/>
-      <c r="P3" s="179"/>
+      <c r="O3" s="187"/>
+      <c r="P3" s="188"/>
       <c r="Q3" s="135"/>
-      <c r="R3" s="163" t="s">
+      <c r="R3" s="170" t="s">
         <v>295</v>
       </c>
-      <c r="S3" s="178"/>
-      <c r="T3" s="179"/>
+      <c r="S3" s="187"/>
+      <c r="T3" s="188"/>
     </row>
     <row r="4" spans="1:20" ht="32">
       <c r="A4" s="16"/>
@@ -9227,13 +9310,13 @@
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
-      <c r="F4" s="166" t="s">
+      <c r="F4" s="175" t="s">
         <v>300</v>
       </c>
-      <c r="G4" s="167"/>
-      <c r="H4" s="167"/>
-      <c r="I4" s="167"/>
-      <c r="J4" s="173"/>
+      <c r="G4" s="176"/>
+      <c r="H4" s="176"/>
+      <c r="I4" s="176"/>
+      <c r="J4" s="182"/>
       <c r="K4" s="139"/>
       <c r="L4" s="139"/>
       <c r="M4" s="135"/>
@@ -11680,31 +11763,31 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="B6:E56">
-    <cfRule type="expression" dxfId="60" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="0" stopIfTrue="1">
       <formula>B6&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:A56">
-    <cfRule type="expression" dxfId="59" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="1" stopIfTrue="1">
       <formula>AND(NOT(ISBLANK($A6)),NOT($P6))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="2" stopIfTrue="1">
       <formula>AND(NOT(ISBLANK($A6)),$P6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:J56">
-    <cfRule type="expression" dxfId="57" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="3" stopIfTrue="1">
       <formula>OR(NOT(F$2),NOT($K6))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="4" stopIfTrue="1">
       <formula>AND(F$2,$K6,NOT(ISBLANK(F6)),NOT(F6))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="5" stopIfTrue="1">
       <formula>AND(F$2,$K6,NOT(ISBLANK(F6)),F6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:J5">
-    <cfRule type="expression" dxfId="54" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="6" stopIfTrue="1">
       <formula>F$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11722,7 +11805,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -11730,7 +11813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11741,7 +11824,7 @@
       <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6.140625" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" customWidth="1"/>
@@ -11791,18 +11874,18 @@
       <c r="P1" s="134"/>
     </row>
     <row r="2" spans="1:16" ht="66" hidden="1" customHeight="1">
-      <c r="A2" s="163" t="s">
+      <c r="A2" s="170" t="s">
         <v>255</v>
       </c>
       <c r="B2" s="219"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164"/>
-      <c r="I2" s="164"/>
-      <c r="J2" s="165"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="173"/>
+      <c r="I2" s="173"/>
+      <c r="J2" s="174"/>
       <c r="K2" s="113" t="s">
         <v>148</v>
       </c>
@@ -11810,10 +11893,10 @@
         <v>150</v>
       </c>
       <c r="N2" s="135"/>
-      <c r="O2" s="163" t="s">
+      <c r="O2" s="170" t="s">
         <v>149</v>
       </c>
-      <c r="P2" s="179"/>
+      <c r="P2" s="188"/>
     </row>
     <row r="3" spans="1:16" ht="16" customHeight="1">
       <c r="A3" s="16"/>
@@ -11821,13 +11904,13 @@
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
-      <c r="F3" s="166" t="s">
+      <c r="F3" s="175" t="s">
         <v>300</v>
       </c>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="173"/>
+      <c r="G3" s="176"/>
+      <c r="H3" s="176"/>
+      <c r="I3" s="176"/>
+      <c r="J3" s="182"/>
       <c r="K3" s="138"/>
       <c r="M3" s="138"/>
       <c r="N3" s="135"/>
@@ -12923,28 +13006,28 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="C5:E38">
-    <cfRule type="expression" dxfId="53" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="0" stopIfTrue="1">
       <formula>NOT(ISBLANK(C5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B38">
-    <cfRule type="expression" dxfId="52" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="1" stopIfTrue="1">
       <formula>$K5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:J38">
-    <cfRule type="expression" dxfId="51" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="2" stopIfTrue="1">
       <formula>OR(NOT(F$1),NOT($K5))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="3" stopIfTrue="1">
       <formula>AND(F$1,$K5,NOT(ISBLANK(F5)),NOT(F5))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="4" stopIfTrue="1">
       <formula>AND(F$1,$K5,NOT(ISBLANK(F5)),F5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:J4">
-    <cfRule type="expression" dxfId="48" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="5" stopIfTrue="1">
       <formula>F$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12956,7 +13039,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -12964,17 +13047,17 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ46"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="5.5703125" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
@@ -13204,76 +13287,76 @@
       <c r="BJ2" s="22"/>
     </row>
     <row r="3" spans="1:62" ht="34" hidden="1" customHeight="1">
-      <c r="A3" s="163" t="s">
+      <c r="A3" s="170" t="s">
         <v>270</v>
       </c>
-      <c r="B3" s="164"/>
-      <c r="C3" s="164"/>
-      <c r="D3" s="164"/>
-      <c r="E3" s="164"/>
-      <c r="F3" s="164"/>
-      <c r="G3" s="164"/>
-      <c r="H3" s="164"/>
-      <c r="I3" s="164"/>
-      <c r="J3" s="164"/>
-      <c r="K3" s="164"/>
-      <c r="L3" s="164"/>
-      <c r="M3" s="163" t="s">
+      <c r="B3" s="173"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="173"/>
+      <c r="F3" s="173"/>
+      <c r="G3" s="173"/>
+      <c r="H3" s="173"/>
+      <c r="I3" s="173"/>
+      <c r="J3" s="173"/>
+      <c r="K3" s="173"/>
+      <c r="L3" s="173"/>
+      <c r="M3" s="170" t="s">
         <v>313</v>
       </c>
-      <c r="N3" s="164"/>
-      <c r="O3" s="164"/>
-      <c r="P3" s="164"/>
-      <c r="Q3" s="164"/>
-      <c r="R3" s="164"/>
-      <c r="S3" s="164"/>
-      <c r="T3" s="164"/>
-      <c r="U3" s="164"/>
-      <c r="V3" s="164"/>
-      <c r="W3" s="164"/>
-      <c r="X3" s="164"/>
-      <c r="Y3" s="164"/>
-      <c r="Z3" s="164"/>
-      <c r="AA3" s="164"/>
-      <c r="AB3" s="164"/>
-      <c r="AC3" s="164"/>
-      <c r="AD3" s="164"/>
-      <c r="AE3" s="164"/>
-      <c r="AF3" s="164"/>
-      <c r="AG3" s="164"/>
-      <c r="AH3" s="164"/>
-      <c r="AI3" s="165"/>
-      <c r="AJ3" s="163" t="s">
+      <c r="N3" s="173"/>
+      <c r="O3" s="173"/>
+      <c r="P3" s="173"/>
+      <c r="Q3" s="173"/>
+      <c r="R3" s="173"/>
+      <c r="S3" s="173"/>
+      <c r="T3" s="173"/>
+      <c r="U3" s="173"/>
+      <c r="V3" s="173"/>
+      <c r="W3" s="173"/>
+      <c r="X3" s="173"/>
+      <c r="Y3" s="173"/>
+      <c r="Z3" s="173"/>
+      <c r="AA3" s="173"/>
+      <c r="AB3" s="173"/>
+      <c r="AC3" s="173"/>
+      <c r="AD3" s="173"/>
+      <c r="AE3" s="173"/>
+      <c r="AF3" s="173"/>
+      <c r="AG3" s="173"/>
+      <c r="AH3" s="173"/>
+      <c r="AI3" s="174"/>
+      <c r="AJ3" s="170" t="s">
         <v>271</v>
       </c>
-      <c r="AK3" s="164"/>
-      <c r="AL3" s="164"/>
-      <c r="AM3" s="165"/>
-      <c r="AO3" s="174" t="s">
+      <c r="AK3" s="173"/>
+      <c r="AL3" s="173"/>
+      <c r="AM3" s="174"/>
+      <c r="AO3" s="183" t="s">
         <v>329</v>
       </c>
-      <c r="AP3" s="175"/>
-      <c r="AQ3" s="209"/>
-      <c r="AS3" s="163" t="s">
+      <c r="AP3" s="184"/>
+      <c r="AQ3" s="194"/>
+      <c r="AS3" s="170" t="s">
         <v>61</v>
       </c>
-      <c r="AT3" s="164"/>
-      <c r="AU3" s="164"/>
-      <c r="AV3" s="164"/>
-      <c r="AW3" s="164"/>
-      <c r="AX3" s="164"/>
-      <c r="AY3" s="164"/>
-      <c r="AZ3" s="164"/>
-      <c r="BA3" s="164"/>
-      <c r="BB3" s="164"/>
-      <c r="BC3" s="164"/>
-      <c r="BD3" s="164"/>
-      <c r="BE3" s="164"/>
-      <c r="BF3" s="164"/>
-      <c r="BG3" s="164"/>
-      <c r="BH3" s="164"/>
-      <c r="BI3" s="164"/>
-      <c r="BJ3" s="164"/>
+      <c r="AT3" s="173"/>
+      <c r="AU3" s="173"/>
+      <c r="AV3" s="173"/>
+      <c r="AW3" s="173"/>
+      <c r="AX3" s="173"/>
+      <c r="AY3" s="173"/>
+      <c r="AZ3" s="173"/>
+      <c r="BA3" s="173"/>
+      <c r="BB3" s="173"/>
+      <c r="BC3" s="173"/>
+      <c r="BD3" s="173"/>
+      <c r="BE3" s="173"/>
+      <c r="BF3" s="173"/>
+      <c r="BG3" s="173"/>
+      <c r="BH3" s="173"/>
+      <c r="BI3" s="173"/>
+      <c r="BJ3" s="173"/>
     </row>
     <row r="4" spans="1:62" ht="31" customHeight="1">
       <c r="A4" s="16"/>
@@ -13316,10 +13399,10 @@
       <c r="AH4" s="16"/>
       <c r="AI4" s="16"/>
       <c r="AJ4" s="32"/>
-      <c r="AK4" s="174" t="s">
+      <c r="AK4" s="183" t="s">
         <v>185</v>
       </c>
-      <c r="AL4" s="210"/>
+      <c r="AL4" s="195"/>
       <c r="AM4" s="160" t="s">
         <v>216</v>
       </c>
@@ -13565,7 +13648,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="6" spans="1:62" ht="26">
+    <row r="6" spans="1:62">
       <c r="A6" s="43"/>
       <c r="B6" s="44"/>
       <c r="C6" s="57"/>
@@ -13580,7 +13663,10 @@
       <c r="L6" s="149"/>
       <c r="M6" s="159"/>
       <c r="N6" s="47"/>
-      <c r="O6" s="145"/>
+      <c r="O6" s="145" t="str">
+        <f>IF(ISNA($AO6),"",$AO6)</f>
+        <v/>
+      </c>
       <c r="P6" s="149"/>
       <c r="Q6" s="58"/>
       <c r="R6" s="47"/>
@@ -13704,7 +13790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:62" ht="52">
+    <row r="7" spans="1:62">
       <c r="A7" s="43"/>
       <c r="B7" s="44"/>
       <c r="C7" s="57"/>
@@ -13719,7 +13805,10 @@
       <c r="L7" s="149"/>
       <c r="M7" s="159"/>
       <c r="N7" s="47"/>
-      <c r="O7" s="145"/>
+      <c r="O7" s="145" t="str">
+        <f t="shared" ref="O7:O46" si="15">IF(ISNA($AO7),"",$AO7)</f>
+        <v/>
+      </c>
       <c r="P7" s="149"/>
       <c r="Q7" s="58"/>
       <c r="R7" s="47"/>
@@ -13745,11 +13834,11 @@
         <v>7</v>
       </c>
       <c r="AK7" s="48" t="b">
-        <f t="shared" ref="AK7" si="15">NOT(ISBLANK(A7))</f>
+        <f t="shared" ref="AK7" si="16">NOT(ISBLANK(A7))</f>
         <v>0</v>
       </c>
       <c r="AL7" s="48" t="b">
-        <f t="shared" ref="AL7" ca="1" si="16">(COUNTIF(INDIRECT("$A6:A"&amp;AJ7),A7)=1)</f>
+        <f t="shared" ref="AL7" ca="1" si="17">(COUNTIF(INDIRECT("$A6:A"&amp;AJ7),A7)=1)</f>
         <v>0</v>
       </c>
       <c r="AM7" s="48" t="b">
@@ -13758,7 +13847,7 @@
       </c>
       <c r="AN7" s="49"/>
       <c r="AO7" s="137" t="e">
-        <f t="shared" ref="AO7" si="17">INDEX(GuideWordMeaning,MATCH(N7,GuideWord,0),MATCH(M7,GuideWordElement,0))</f>
+        <f t="shared" ref="AO7" si="18">INDEX(GuideWordMeaning,MATCH(N7,GuideWord,0),MATCH(M7,GuideWordElement,0))</f>
         <v>#N/A</v>
       </c>
       <c r="AP7" s="137" t="b">
@@ -13771,7 +13860,7 @@
       </c>
       <c r="AR7" s="49"/>
       <c r="AS7" s="48">
-        <f t="shared" ref="AS7" si="18">AJ7-1</f>
+        <f t="shared" ref="AS7" si="19">AJ7-1</f>
         <v>6</v>
       </c>
       <c r="AT7" s="48">
@@ -13811,27 +13900,27 @@
         <v>0</v>
       </c>
       <c r="BC7" s="48" t="b">
-        <f t="shared" ref="BC7" ca="1" si="19">AND(BB7,NOT(ISBLANK(B7)),B7=AU7)</f>
+        <f t="shared" ref="BC7" ca="1" si="20">AND(BB7,NOT(ISBLANK(B7)),B7=AU7)</f>
         <v>0</v>
       </c>
       <c r="BD7" s="48" t="b">
-        <f t="shared" ref="BD7" ca="1" si="20">AND(BC7,NOT(ISBLANK(C7)),C7=AV7)</f>
+        <f t="shared" ref="BD7" ca="1" si="21">AND(BC7,NOT(ISBLANK(C7)),C7=AV7)</f>
         <v>0</v>
       </c>
       <c r="BE7" s="48" t="b">
-        <f t="shared" ref="BE7" ca="1" si="21">AND(BD7,NOT(ISBLANK(D7)),D7=AW7)</f>
+        <f t="shared" ref="BE7" ca="1" si="22">AND(BD7,NOT(ISBLANK(D7)),D7=AW7)</f>
         <v>0</v>
       </c>
       <c r="BF7" s="48" t="b">
-        <f t="shared" ref="BF7" ca="1" si="22">AND(BE7,NOT(ISBLANK(E7)),E7=AX7)</f>
+        <f t="shared" ref="BF7" ca="1" si="23">AND(BE7,NOT(ISBLANK(E7)),E7=AX7)</f>
         <v>0</v>
       </c>
       <c r="BG7" s="48" t="b">
-        <f t="shared" ref="BG7" ca="1" si="23">AND(BF7,NOT(ISBLANK(F7)),F7=AY7)</f>
+        <f t="shared" ref="BG7" ca="1" si="24">AND(BF7,NOT(ISBLANK(F7)),F7=AY7)</f>
         <v>0</v>
       </c>
       <c r="BH7" s="48" t="b">
-        <f t="shared" ref="BH7" ca="1" si="24">AND(BG7,NOT(ISBLANK(G7)),G7=AZ7)</f>
+        <f t="shared" ref="BH7" ca="1" si="25">AND(BG7,NOT(ISBLANK(G7)),G7=AZ7)</f>
         <v>0</v>
       </c>
       <c r="BI7" s="48" t="b">
@@ -13839,11 +13928,11 @@
         <v>0</v>
       </c>
       <c r="BJ7" s="48" t="b">
-        <f t="shared" ref="BJ7" ca="1" si="25">AND(BI7,L7=BA7)</f>
+        <f t="shared" ref="BJ7" ca="1" si="26">AND(BI7,L7=BA7)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:62" ht="26">
+    <row r="8" spans="1:62">
       <c r="A8" s="43"/>
       <c r="B8" s="44"/>
       <c r="C8" s="57"/>
@@ -13858,7 +13947,10 @@
       <c r="L8" s="149"/>
       <c r="M8" s="159"/>
       <c r="N8" s="47"/>
-      <c r="O8" s="145"/>
+      <c r="O8" s="145" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
       <c r="P8" s="149"/>
       <c r="Q8" s="58"/>
       <c r="R8" s="47"/>
@@ -13884,11 +13976,11 @@
         <v>8</v>
       </c>
       <c r="AK8" s="48" t="b">
-        <f t="shared" ref="AK8" si="26">NOT(ISBLANK(A8))</f>
+        <f t="shared" ref="AK8" si="27">NOT(ISBLANK(A8))</f>
         <v>0</v>
       </c>
       <c r="AL8" s="48" t="b">
-        <f t="shared" ref="AL8" ca="1" si="27">(COUNTIF(INDIRECT("$A6:A"&amp;AJ8),A8)=1)</f>
+        <f t="shared" ref="AL8" ca="1" si="28">(COUNTIF(INDIRECT("$A6:A"&amp;AJ8),A8)=1)</f>
         <v>0</v>
       </c>
       <c r="AM8" s="48" t="b">
@@ -13897,7 +13989,7 @@
       </c>
       <c r="AN8" s="49"/>
       <c r="AO8" s="137" t="e">
-        <f t="shared" ref="AO8" si="28">INDEX(GuideWordMeaning,MATCH(N8,GuideWord,0),MATCH(M8,GuideWordElement,0))</f>
+        <f t="shared" ref="AO8" si="29">INDEX(GuideWordMeaning,MATCH(N8,GuideWord,0),MATCH(M8,GuideWordElement,0))</f>
         <v>#N/A</v>
       </c>
       <c r="AP8" s="137" t="b">
@@ -13910,7 +14002,7 @@
       </c>
       <c r="AR8" s="49"/>
       <c r="AS8" s="48">
-        <f t="shared" ref="AS8" si="29">AJ8-1</f>
+        <f t="shared" ref="AS8" si="30">AJ8-1</f>
         <v>7</v>
       </c>
       <c r="AT8" s="48">
@@ -13950,27 +14042,27 @@
         <v>0</v>
       </c>
       <c r="BC8" s="48" t="b">
-        <f t="shared" ref="BC8" ca="1" si="30">AND(BB8,NOT(ISBLANK(B8)),B8=AU8)</f>
+        <f t="shared" ref="BC8" ca="1" si="31">AND(BB8,NOT(ISBLANK(B8)),B8=AU8)</f>
         <v>0</v>
       </c>
       <c r="BD8" s="48" t="b">
-        <f t="shared" ref="BD8" ca="1" si="31">AND(BC8,NOT(ISBLANK(C8)),C8=AV8)</f>
+        <f t="shared" ref="BD8" ca="1" si="32">AND(BC8,NOT(ISBLANK(C8)),C8=AV8)</f>
         <v>0</v>
       </c>
       <c r="BE8" s="48" t="b">
-        <f t="shared" ref="BE8" ca="1" si="32">AND(BD8,NOT(ISBLANK(D8)),D8=AW8)</f>
+        <f t="shared" ref="BE8" ca="1" si="33">AND(BD8,NOT(ISBLANK(D8)),D8=AW8)</f>
         <v>0</v>
       </c>
       <c r="BF8" s="48" t="b">
-        <f t="shared" ref="BF8" ca="1" si="33">AND(BE8,NOT(ISBLANK(E8)),E8=AX8)</f>
+        <f t="shared" ref="BF8" ca="1" si="34">AND(BE8,NOT(ISBLANK(E8)),E8=AX8)</f>
         <v>0</v>
       </c>
       <c r="BG8" s="48" t="b">
-        <f t="shared" ref="BG8" ca="1" si="34">AND(BF8,NOT(ISBLANK(F8)),F8=AY8)</f>
+        <f t="shared" ref="BG8" ca="1" si="35">AND(BF8,NOT(ISBLANK(F8)),F8=AY8)</f>
         <v>0</v>
       </c>
       <c r="BH8" s="48" t="b">
-        <f t="shared" ref="BH8" ca="1" si="35">AND(BG8,NOT(ISBLANK(G8)),G8=AZ8)</f>
+        <f t="shared" ref="BH8" ca="1" si="36">AND(BG8,NOT(ISBLANK(G8)),G8=AZ8)</f>
         <v>0</v>
       </c>
       <c r="BI8" s="48" t="b">
@@ -13978,7 +14070,7 @@
         <v>0</v>
       </c>
       <c r="BJ8" s="48" t="b">
-        <f t="shared" ref="BJ8" ca="1" si="36">AND(BI8,L8=BA8)</f>
+        <f t="shared" ref="BJ8" ca="1" si="37">AND(BI8,L8=BA8)</f>
         <v>0</v>
       </c>
     </row>
@@ -13997,7 +14089,10 @@
       <c r="L9" s="149"/>
       <c r="M9" s="159"/>
       <c r="N9" s="47"/>
-      <c r="O9" s="145"/>
+      <c r="O9" s="145" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
       <c r="P9" s="149"/>
       <c r="Q9" s="58"/>
       <c r="R9" s="47"/>
@@ -14031,7 +14126,7 @@
         <v>0</v>
       </c>
       <c r="AM9" s="48" t="b">
-        <f t="shared" ref="AM9:AM46" si="37">AND(NOT(ISBLANK(I9)),NOT(ISBLANK(J9)),NOT(ISBLANK(K9)))</f>
+        <f t="shared" ref="AM9:AM46" si="38">AND(NOT(ISBLANK(I9)),NOT(ISBLANK(J9)),NOT(ISBLANK(K9)))</f>
         <v>0</v>
       </c>
       <c r="AN9" s="49"/>
@@ -14040,11 +14135,11 @@
         <v>#N/A</v>
       </c>
       <c r="AP9" s="137" t="b">
-        <f t="shared" ref="AP9:AP46" si="38">P9&lt;&gt;""</f>
+        <f t="shared" ref="AP9:AP46" si="39">P9&lt;&gt;""</f>
         <v>0</v>
       </c>
       <c r="AQ9" s="48" t="b">
-        <f t="shared" ref="AQ9:AQ46" si="39">IFERROR(OR(Q9:AB9), FALSE)</f>
+        <f t="shared" ref="AQ9:AQ46" si="40">IFERROR(OR(Q9:AB9), FALSE)</f>
         <v>0</v>
       </c>
       <c r="AR9" s="49"/>
@@ -14085,7 +14180,7 @@
         <v>0</v>
       </c>
       <c r="BB9" s="48" t="b">
-        <f t="shared" ref="BB9:BB46" ca="1" si="40">AND($AK9,$A9=$AT9)</f>
+        <f t="shared" ref="BB9:BB46" ca="1" si="41">AND($AK9,$A9=$AT9)</f>
         <v>0</v>
       </c>
       <c r="BC9" s="48" t="b">
@@ -14113,7 +14208,7 @@
         <v>0</v>
       </c>
       <c r="BI9" s="48" t="b">
-        <f t="shared" ref="BI9:BI46" ca="1" si="41">AND($BC9,C9=AV9,D9=AW9,E9=AX9,F9=AY9,G9=AZ9)</f>
+        <f t="shared" ref="BI9:BI46" ca="1" si="42">AND($BC9,C9=AV9,D9=AW9,E9=AX9,F9=AY9,G9=AZ9)</f>
         <v>0</v>
       </c>
       <c r="BJ9" s="48" t="b">
@@ -14136,7 +14231,10 @@
       <c r="L10" s="149"/>
       <c r="M10" s="159"/>
       <c r="N10" s="47"/>
-      <c r="O10" s="145"/>
+      <c r="O10" s="145" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
       <c r="P10" s="149"/>
       <c r="Q10" s="58"/>
       <c r="R10" s="47"/>
@@ -14162,33 +14260,33 @@
         <v>10</v>
       </c>
       <c r="AK10" s="48" t="b">
-        <f t="shared" ref="AK10" si="42">NOT(ISBLANK(A10))</f>
+        <f t="shared" ref="AK10" si="43">NOT(ISBLANK(A10))</f>
         <v>0</v>
       </c>
       <c r="AL10" s="48" t="b">
-        <f t="shared" ref="AL10" ca="1" si="43">(COUNTIF(INDIRECT("$A6:A"&amp;AJ10),A10)=1)</f>
+        <f t="shared" ref="AL10" ca="1" si="44">(COUNTIF(INDIRECT("$A6:A"&amp;AJ10),A10)=1)</f>
         <v>0</v>
       </c>
       <c r="AM10" s="48" t="b">
-        <f t="shared" ref="AM10" si="44">AND(NOT(ISBLANK(I10)),NOT(ISBLANK(J10)),NOT(ISBLANK(K10)))</f>
+        <f t="shared" ref="AM10" si="45">AND(NOT(ISBLANK(I10)),NOT(ISBLANK(J10)),NOT(ISBLANK(K10)))</f>
         <v>0</v>
       </c>
       <c r="AN10" s="49"/>
       <c r="AO10" s="137" t="e">
-        <f t="shared" ref="AO10" si="45">INDEX(GuideWordMeaning,MATCH(N10,GuideWord,0),MATCH(M10,GuideWordElement,0))</f>
+        <f t="shared" ref="AO10" si="46">INDEX(GuideWordMeaning,MATCH(N10,GuideWord,0),MATCH(M10,GuideWordElement,0))</f>
         <v>#N/A</v>
       </c>
       <c r="AP10" s="137" t="b">
-        <f t="shared" ref="AP10" si="46">P10&lt;&gt;""</f>
+        <f t="shared" ref="AP10" si="47">P10&lt;&gt;""</f>
         <v>0</v>
       </c>
       <c r="AQ10" s="48" t="b">
-        <f t="shared" ref="AQ10" si="47">IFERROR(OR(Q10:AB10), FALSE)</f>
+        <f t="shared" ref="AQ10" si="48">IFERROR(OR(Q10:AB10), FALSE)</f>
         <v>0</v>
       </c>
       <c r="AR10" s="49"/>
       <c r="AS10" s="48">
-        <f t="shared" ref="AS10" si="48">AJ10-1</f>
+        <f t="shared" ref="AS10" si="49">AJ10-1</f>
         <v>9</v>
       </c>
       <c r="AT10" s="48">
@@ -14224,39 +14322,39 @@
         <v>0</v>
       </c>
       <c r="BB10" s="48" t="b">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="41"/>
         <v>0</v>
       </c>
       <c r="BC10" s="48" t="b">
-        <f t="shared" ref="BC10" ca="1" si="49">AND(BB10,NOT(ISBLANK(B10)),B10=AU10)</f>
+        <f t="shared" ref="BC10" ca="1" si="50">AND(BB10,NOT(ISBLANK(B10)),B10=AU10)</f>
         <v>0</v>
       </c>
       <c r="BD10" s="48" t="b">
-        <f t="shared" ref="BD10" ca="1" si="50">AND(BC10,NOT(ISBLANK(C10)),C10=AV10)</f>
+        <f t="shared" ref="BD10" ca="1" si="51">AND(BC10,NOT(ISBLANK(C10)),C10=AV10)</f>
         <v>0</v>
       </c>
       <c r="BE10" s="48" t="b">
-        <f t="shared" ref="BE10" ca="1" si="51">AND(BD10,NOT(ISBLANK(D10)),D10=AW10)</f>
+        <f t="shared" ref="BE10" ca="1" si="52">AND(BD10,NOT(ISBLANK(D10)),D10=AW10)</f>
         <v>0</v>
       </c>
       <c r="BF10" s="48" t="b">
-        <f t="shared" ref="BF10" ca="1" si="52">AND(BE10,NOT(ISBLANK(E10)),E10=AX10)</f>
+        <f t="shared" ref="BF10" ca="1" si="53">AND(BE10,NOT(ISBLANK(E10)),E10=AX10)</f>
         <v>0</v>
       </c>
       <c r="BG10" s="48" t="b">
-        <f t="shared" ref="BG10" ca="1" si="53">AND(BF10,NOT(ISBLANK(F10)),F10=AY10)</f>
+        <f t="shared" ref="BG10" ca="1" si="54">AND(BF10,NOT(ISBLANK(F10)),F10=AY10)</f>
         <v>0</v>
       </c>
       <c r="BH10" s="48" t="b">
-        <f t="shared" ref="BH10" ca="1" si="54">AND(BG10,NOT(ISBLANK(G10)),G10=AZ10)</f>
+        <f t="shared" ref="BH10" ca="1" si="55">AND(BG10,NOT(ISBLANK(G10)),G10=AZ10)</f>
         <v>0</v>
       </c>
       <c r="BI10" s="48" t="b">
-        <f t="shared" ref="BI10" ca="1" si="55">AND($BC10,C10=AV10,D10=AW10,E10=AX10,F10=AY10,G10=AZ10)</f>
+        <f t="shared" ref="BI10" ca="1" si="56">AND($BC10,C10=AV10,D10=AW10,E10=AX10,F10=AY10,G10=AZ10)</f>
         <v>0</v>
       </c>
       <c r="BJ10" s="48" t="b">
-        <f t="shared" ref="BJ10" ca="1" si="56">AND(BI10,L10=BA10)</f>
+        <f t="shared" ref="BJ10" ca="1" si="57">AND(BI10,L10=BA10)</f>
         <v>0</v>
       </c>
     </row>
@@ -14275,7 +14373,10 @@
       <c r="L11" s="149"/>
       <c r="M11" s="159"/>
       <c r="N11" s="47"/>
-      <c r="O11" s="145"/>
+      <c r="O11" s="145" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
       <c r="P11" s="149"/>
       <c r="Q11" s="58"/>
       <c r="R11" s="47"/>
@@ -14301,33 +14402,33 @@
         <v>11</v>
       </c>
       <c r="AK11" s="48" t="b">
-        <f t="shared" ref="AK11" si="57">NOT(ISBLANK(A11))</f>
+        <f t="shared" ref="AK11" si="58">NOT(ISBLANK(A11))</f>
         <v>0</v>
       </c>
       <c r="AL11" s="48" t="b">
-        <f t="shared" ref="AL11" ca="1" si="58">(COUNTIF(INDIRECT("$A6:A"&amp;AJ11),A11)=1)</f>
+        <f t="shared" ref="AL11" ca="1" si="59">(COUNTIF(INDIRECT("$A6:A"&amp;AJ11),A11)=1)</f>
         <v>0</v>
       </c>
       <c r="AM11" s="48" t="b">
-        <f t="shared" ref="AM11" si="59">AND(NOT(ISBLANK(I11)),NOT(ISBLANK(J11)),NOT(ISBLANK(K11)))</f>
+        <f t="shared" ref="AM11" si="60">AND(NOT(ISBLANK(I11)),NOT(ISBLANK(J11)),NOT(ISBLANK(K11)))</f>
         <v>0</v>
       </c>
       <c r="AN11" s="49"/>
       <c r="AO11" s="137" t="e">
-        <f t="shared" ref="AO11" si="60">INDEX(GuideWordMeaning,MATCH(N11,GuideWord,0),MATCH(M11,GuideWordElement,0))</f>
+        <f t="shared" ref="AO11" si="61">INDEX(GuideWordMeaning,MATCH(N11,GuideWord,0),MATCH(M11,GuideWordElement,0))</f>
         <v>#N/A</v>
       </c>
       <c r="AP11" s="137" t="b">
-        <f t="shared" ref="AP11" si="61">P11&lt;&gt;""</f>
+        <f t="shared" ref="AP11" si="62">P11&lt;&gt;""</f>
         <v>0</v>
       </c>
       <c r="AQ11" s="48" t="b">
-        <f t="shared" ref="AQ11" si="62">IFERROR(OR(Q11:AB11), FALSE)</f>
+        <f t="shared" ref="AQ11" si="63">IFERROR(OR(Q11:AB11), FALSE)</f>
         <v>0</v>
       </c>
       <c r="AR11" s="49"/>
       <c r="AS11" s="48">
-        <f t="shared" ref="AS11" si="63">AJ11-1</f>
+        <f t="shared" ref="AS11" si="64">AJ11-1</f>
         <v>10</v>
       </c>
       <c r="AT11" s="48">
@@ -14363,39 +14464,39 @@
         <v>0</v>
       </c>
       <c r="BB11" s="48" t="b">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="41"/>
         <v>0</v>
       </c>
       <c r="BC11" s="48" t="b">
-        <f t="shared" ref="BC11" ca="1" si="64">AND(BB11,NOT(ISBLANK(B11)),B11=AU11)</f>
+        <f t="shared" ref="BC11" ca="1" si="65">AND(BB11,NOT(ISBLANK(B11)),B11=AU11)</f>
         <v>0</v>
       </c>
       <c r="BD11" s="48" t="b">
-        <f t="shared" ref="BD11" ca="1" si="65">AND(BC11,NOT(ISBLANK(C11)),C11=AV11)</f>
+        <f t="shared" ref="BD11" ca="1" si="66">AND(BC11,NOT(ISBLANK(C11)),C11=AV11)</f>
         <v>0</v>
       </c>
       <c r="BE11" s="48" t="b">
-        <f t="shared" ref="BE11" ca="1" si="66">AND(BD11,NOT(ISBLANK(D11)),D11=AW11)</f>
+        <f t="shared" ref="BE11" ca="1" si="67">AND(BD11,NOT(ISBLANK(D11)),D11=AW11)</f>
         <v>0</v>
       </c>
       <c r="BF11" s="48" t="b">
-        <f t="shared" ref="BF11" ca="1" si="67">AND(BE11,NOT(ISBLANK(E11)),E11=AX11)</f>
+        <f t="shared" ref="BF11" ca="1" si="68">AND(BE11,NOT(ISBLANK(E11)),E11=AX11)</f>
         <v>0</v>
       </c>
       <c r="BG11" s="48" t="b">
-        <f t="shared" ref="BG11" ca="1" si="68">AND(BF11,NOT(ISBLANK(F11)),F11=AY11)</f>
+        <f t="shared" ref="BG11" ca="1" si="69">AND(BF11,NOT(ISBLANK(F11)),F11=AY11)</f>
         <v>0</v>
       </c>
       <c r="BH11" s="48" t="b">
-        <f t="shared" ref="BH11" ca="1" si="69">AND(BG11,NOT(ISBLANK(G11)),G11=AZ11)</f>
+        <f t="shared" ref="BH11" ca="1" si="70">AND(BG11,NOT(ISBLANK(G11)),G11=AZ11)</f>
         <v>0</v>
       </c>
       <c r="BI11" s="48" t="b">
-        <f t="shared" ref="BI11" ca="1" si="70">AND($BC11,C11=AV11,D11=AW11,E11=AX11,F11=AY11,G11=AZ11)</f>
+        <f t="shared" ref="BI11" ca="1" si="71">AND($BC11,C11=AV11,D11=AW11,E11=AX11,F11=AY11,G11=AZ11)</f>
         <v>0</v>
       </c>
       <c r="BJ11" s="48" t="b">
-        <f t="shared" ref="BJ11" ca="1" si="71">AND(BI11,L11=BA11)</f>
+        <f t="shared" ref="BJ11" ca="1" si="72">AND(BI11,L11=BA11)</f>
         <v>0</v>
       </c>
     </row>
@@ -14414,7 +14515,10 @@
       <c r="L12" s="149"/>
       <c r="M12" s="159"/>
       <c r="N12" s="47"/>
-      <c r="O12" s="145"/>
+      <c r="O12" s="145" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
       <c r="P12" s="149"/>
       <c r="Q12" s="58"/>
       <c r="R12" s="47"/>
@@ -14448,20 +14552,20 @@
         <v>0</v>
       </c>
       <c r="AM12" s="48" t="b">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AN12" s="49"/>
       <c r="AO12" s="137" t="e">
-        <f t="shared" ref="AO12:AO46" si="72">INDEX(GuideWordMeaning,MATCH(N12,GuideWord,0),MATCH(M12,GuideWordElement,0))</f>
+        <f t="shared" ref="AO12:AO46" si="73">INDEX(GuideWordMeaning,MATCH(N12,GuideWord,0),MATCH(M12,GuideWordElement,0))</f>
         <v>#N/A</v>
       </c>
       <c r="AP12" s="137" t="b">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AQ12" s="48" t="b">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AR12" s="49"/>
@@ -14502,7 +14606,7 @@
         <v>0</v>
       </c>
       <c r="BB12" s="48" t="b">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="41"/>
         <v>0</v>
       </c>
       <c r="BC12" s="48" t="b">
@@ -14530,7 +14634,7 @@
         <v>0</v>
       </c>
       <c r="BI12" s="48" t="b">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>0</v>
       </c>
       <c r="BJ12" s="48" t="b">
@@ -14553,7 +14657,10 @@
       <c r="L13" s="149"/>
       <c r="M13" s="154"/>
       <c r="N13" s="47"/>
-      <c r="O13" s="145"/>
+      <c r="O13" s="145" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
       <c r="P13" s="149"/>
       <c r="Q13" s="58"/>
       <c r="R13" s="47"/>
@@ -14587,20 +14694,20 @@
         <v>0</v>
       </c>
       <c r="AM13" s="48" t="b">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AN13" s="49"/>
       <c r="AO13" s="137" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#N/A</v>
       </c>
       <c r="AP13" s="137" t="b">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AQ13" s="48" t="b">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AR13" s="49"/>
@@ -14641,7 +14748,7 @@
         <v>0</v>
       </c>
       <c r="BB13" s="48" t="b">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="41"/>
         <v>0</v>
       </c>
       <c r="BC13" s="48" t="b">
@@ -14669,7 +14776,7 @@
         <v>0</v>
       </c>
       <c r="BI13" s="48" t="b">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>0</v>
       </c>
       <c r="BJ13" s="48" t="b">
@@ -14692,7 +14799,10 @@
       <c r="L14" s="149"/>
       <c r="M14" s="154"/>
       <c r="N14" s="47"/>
-      <c r="O14" s="145"/>
+      <c r="O14" s="145" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
       <c r="P14" s="149"/>
       <c r="Q14" s="58"/>
       <c r="R14" s="47"/>
@@ -14726,20 +14836,20 @@
         <v>0</v>
       </c>
       <c r="AM14" s="48" t="b">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AN14" s="49"/>
       <c r="AO14" s="137" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#N/A</v>
       </c>
       <c r="AP14" s="137" t="b">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AQ14" s="48" t="b">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AR14" s="49"/>
@@ -14780,7 +14890,7 @@
         <v>0</v>
       </c>
       <c r="BB14" s="48" t="b">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="41"/>
         <v>0</v>
       </c>
       <c r="BC14" s="48" t="b">
@@ -14808,7 +14918,7 @@
         <v>0</v>
       </c>
       <c r="BI14" s="48" t="b">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>0</v>
       </c>
       <c r="BJ14" s="48" t="b">
@@ -14831,7 +14941,10 @@
       <c r="L15" s="149"/>
       <c r="M15" s="154"/>
       <c r="N15" s="47"/>
-      <c r="O15" s="145"/>
+      <c r="O15" s="145" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
       <c r="P15" s="149"/>
       <c r="Q15" s="58"/>
       <c r="R15" s="47"/>
@@ -14865,20 +14978,20 @@
         <v>0</v>
       </c>
       <c r="AM15" s="48" t="b">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AN15" s="49"/>
       <c r="AO15" s="137" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#N/A</v>
       </c>
       <c r="AP15" s="137" t="b">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AQ15" s="48" t="b">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AR15" s="49"/>
@@ -14919,7 +15032,7 @@
         <v>0</v>
       </c>
       <c r="BB15" s="48" t="b">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="41"/>
         <v>0</v>
       </c>
       <c r="BC15" s="48" t="b">
@@ -14947,7 +15060,7 @@
         <v>0</v>
       </c>
       <c r="BI15" s="48" t="b">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>0</v>
       </c>
       <c r="BJ15" s="48" t="b">
@@ -14971,7 +15084,7 @@
       <c r="M16" s="154"/>
       <c r="N16" s="47"/>
       <c r="O16" s="145" t="str">
-        <f t="shared" ref="O9:O46" si="73">IF(ISNA($AO16),"",$AO16)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="P16" s="149"/>
@@ -15061,7 +15174,7 @@
         <v>0</v>
       </c>
       <c r="BB16" s="48" t="b">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="41"/>
         <v>0</v>
       </c>
       <c r="BC16" s="48" t="b">
@@ -15113,7 +15226,7 @@
       <c r="M17" s="154"/>
       <c r="N17" s="47"/>
       <c r="O17" s="145" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="P17" s="149"/>
@@ -15149,20 +15262,20 @@
         <v>0</v>
       </c>
       <c r="AM17" s="48" t="b">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AN17" s="49"/>
       <c r="AO17" s="137" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#N/A</v>
       </c>
       <c r="AP17" s="137" t="b">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AQ17" s="48" t="b">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AR17" s="49"/>
@@ -15203,7 +15316,7 @@
         <v>0</v>
       </c>
       <c r="BB17" s="48" t="b">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="41"/>
         <v>0</v>
       </c>
       <c r="BC17" s="48" t="b">
@@ -15231,7 +15344,7 @@
         <v>0</v>
       </c>
       <c r="BI17" s="48" t="b">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>0</v>
       </c>
       <c r="BJ17" s="48" t="b">
@@ -15255,7 +15368,7 @@
       <c r="M18" s="154"/>
       <c r="N18" s="47"/>
       <c r="O18" s="145" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="P18" s="149"/>
@@ -15291,20 +15404,20 @@
         <v>0</v>
       </c>
       <c r="AM18" s="48" t="b">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AN18" s="49"/>
       <c r="AO18" s="137" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#N/A</v>
       </c>
       <c r="AP18" s="137" t="b">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AQ18" s="48" t="b">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AR18" s="49"/>
@@ -15345,7 +15458,7 @@
         <v>0</v>
       </c>
       <c r="BB18" s="48" t="b">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="41"/>
         <v>0</v>
       </c>
       <c r="BC18" s="48" t="b">
@@ -15373,7 +15486,7 @@
         <v>0</v>
       </c>
       <c r="BI18" s="48" t="b">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>0</v>
       </c>
       <c r="BJ18" s="48" t="b">
@@ -15397,7 +15510,7 @@
       <c r="M19" s="154"/>
       <c r="N19" s="47"/>
       <c r="O19" s="145" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="P19" s="149"/>
@@ -15433,20 +15546,20 @@
         <v>0</v>
       </c>
       <c r="AM19" s="48" t="b">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AN19" s="49"/>
       <c r="AO19" s="137" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#N/A</v>
       </c>
       <c r="AP19" s="137" t="b">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AQ19" s="48" t="b">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AR19" s="49"/>
@@ -15487,7 +15600,7 @@
         <v>0</v>
       </c>
       <c r="BB19" s="48" t="b">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="41"/>
         <v>0</v>
       </c>
       <c r="BC19" s="48" t="b">
@@ -15515,7 +15628,7 @@
         <v>0</v>
       </c>
       <c r="BI19" s="48" t="b">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>0</v>
       </c>
       <c r="BJ19" s="48" t="b">
@@ -15539,7 +15652,7 @@
       <c r="M20" s="154"/>
       <c r="N20" s="47"/>
       <c r="O20" s="145" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="P20" s="149"/>
@@ -15575,20 +15688,20 @@
         <v>0</v>
       </c>
       <c r="AM20" s="48" t="b">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AN20" s="49"/>
       <c r="AO20" s="137" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#N/A</v>
       </c>
       <c r="AP20" s="137" t="b">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AQ20" s="48" t="b">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AR20" s="49"/>
@@ -15629,7 +15742,7 @@
         <v>0</v>
       </c>
       <c r="BB20" s="48" t="b">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="41"/>
         <v>0</v>
       </c>
       <c r="BC20" s="48" t="b">
@@ -15657,7 +15770,7 @@
         <v>0</v>
       </c>
       <c r="BI20" s="48" t="b">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>0</v>
       </c>
       <c r="BJ20" s="48" t="b">
@@ -15681,7 +15794,7 @@
       <c r="M21" s="154"/>
       <c r="N21" s="47"/>
       <c r="O21" s="145" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="P21" s="149"/>
@@ -15717,20 +15830,20 @@
         <v>0</v>
       </c>
       <c r="AM21" s="48" t="b">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AN21" s="49"/>
       <c r="AO21" s="137" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#N/A</v>
       </c>
       <c r="AP21" s="137" t="b">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AQ21" s="48" t="b">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AR21" s="49"/>
@@ -15771,7 +15884,7 @@
         <v>0</v>
       </c>
       <c r="BB21" s="48" t="b">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="41"/>
         <v>0</v>
       </c>
       <c r="BC21" s="48" t="b">
@@ -15799,7 +15912,7 @@
         <v>0</v>
       </c>
       <c r="BI21" s="48" t="b">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>0</v>
       </c>
       <c r="BJ21" s="48" t="b">
@@ -15823,7 +15936,7 @@
       <c r="M22" s="154"/>
       <c r="N22" s="47"/>
       <c r="O22" s="145" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="P22" s="149"/>
@@ -15859,20 +15972,20 @@
         <v>0</v>
       </c>
       <c r="AM22" s="48" t="b">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AN22" s="49"/>
       <c r="AO22" s="137" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#N/A</v>
       </c>
       <c r="AP22" s="137" t="b">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AQ22" s="48" t="b">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AR22" s="49"/>
@@ -15913,7 +16026,7 @@
         <v>0</v>
       </c>
       <c r="BB22" s="48" t="b">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="41"/>
         <v>0</v>
       </c>
       <c r="BC22" s="48" t="b">
@@ -15941,7 +16054,7 @@
         <v>0</v>
       </c>
       <c r="BI22" s="48" t="b">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>0</v>
       </c>
       <c r="BJ22" s="48" t="b">
@@ -15965,7 +16078,7 @@
       <c r="M23" s="154"/>
       <c r="N23" s="47"/>
       <c r="O23" s="145" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="P23" s="149"/>
@@ -16001,20 +16114,20 @@
         <v>0</v>
       </c>
       <c r="AM23" s="48" t="b">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AN23" s="49"/>
       <c r="AO23" s="137" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#N/A</v>
       </c>
       <c r="AP23" s="137" t="b">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AQ23" s="48" t="b">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AR23" s="49"/>
@@ -16055,7 +16168,7 @@
         <v>0</v>
       </c>
       <c r="BB23" s="48" t="b">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="41"/>
         <v>0</v>
       </c>
       <c r="BC23" s="48" t="b">
@@ -16083,7 +16196,7 @@
         <v>0</v>
       </c>
       <c r="BI23" s="48" t="b">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>0</v>
       </c>
       <c r="BJ23" s="48" t="b">
@@ -16107,7 +16220,7 @@
       <c r="M24" s="154"/>
       <c r="N24" s="47"/>
       <c r="O24" s="145" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="P24" s="149"/>
@@ -16143,20 +16256,20 @@
         <v>0</v>
       </c>
       <c r="AM24" s="48" t="b">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AN24" s="49"/>
       <c r="AO24" s="137" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#N/A</v>
       </c>
       <c r="AP24" s="137" t="b">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AQ24" s="48" t="b">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AR24" s="49"/>
@@ -16197,7 +16310,7 @@
         <v>0</v>
       </c>
       <c r="BB24" s="48" t="b">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="41"/>
         <v>0</v>
       </c>
       <c r="BC24" s="48" t="b">
@@ -16225,7 +16338,7 @@
         <v>0</v>
       </c>
       <c r="BI24" s="48" t="b">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>0</v>
       </c>
       <c r="BJ24" s="48" t="b">
@@ -16249,7 +16362,7 @@
       <c r="M25" s="154"/>
       <c r="N25" s="47"/>
       <c r="O25" s="145" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="P25" s="149"/>
@@ -16285,20 +16398,20 @@
         <v>0</v>
       </c>
       <c r="AM25" s="48" t="b">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AN25" s="49"/>
       <c r="AO25" s="137" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#N/A</v>
       </c>
       <c r="AP25" s="137" t="b">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AQ25" s="48" t="b">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AR25" s="49"/>
@@ -16339,7 +16452,7 @@
         <v>0</v>
       </c>
       <c r="BB25" s="48" t="b">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="41"/>
         <v>0</v>
       </c>
       <c r="BC25" s="48" t="b">
@@ -16367,7 +16480,7 @@
         <v>0</v>
       </c>
       <c r="BI25" s="48" t="b">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>0</v>
       </c>
       <c r="BJ25" s="48" t="b">
@@ -16391,7 +16504,7 @@
       <c r="M26" s="154"/>
       <c r="N26" s="47"/>
       <c r="O26" s="145" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="P26" s="149"/>
@@ -16427,20 +16540,20 @@
         <v>0</v>
       </c>
       <c r="AM26" s="48" t="b">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AN26" s="49"/>
       <c r="AO26" s="137" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#N/A</v>
       </c>
       <c r="AP26" s="137" t="b">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AQ26" s="48" t="b">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AR26" s="49"/>
@@ -16481,7 +16594,7 @@
         <v>0</v>
       </c>
       <c r="BB26" s="48" t="b">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="41"/>
         <v>0</v>
       </c>
       <c r="BC26" s="48" t="b">
@@ -16509,7 +16622,7 @@
         <v>0</v>
       </c>
       <c r="BI26" s="48" t="b">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>0</v>
       </c>
       <c r="BJ26" s="48" t="b">
@@ -16533,7 +16646,7 @@
       <c r="M27" s="154"/>
       <c r="N27" s="47"/>
       <c r="O27" s="145" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="P27" s="149"/>
@@ -16569,20 +16682,20 @@
         <v>0</v>
       </c>
       <c r="AM27" s="48" t="b">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AN27" s="49"/>
       <c r="AO27" s="137" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#N/A</v>
       </c>
       <c r="AP27" s="137" t="b">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AQ27" s="48" t="b">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AR27" s="49"/>
@@ -16623,7 +16736,7 @@
         <v>0</v>
       </c>
       <c r="BB27" s="48" t="b">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="41"/>
         <v>0</v>
       </c>
       <c r="BC27" s="48" t="b">
@@ -16651,7 +16764,7 @@
         <v>0</v>
       </c>
       <c r="BI27" s="48" t="b">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>0</v>
       </c>
       <c r="BJ27" s="48" t="b">
@@ -16675,7 +16788,7 @@
       <c r="M28" s="154"/>
       <c r="N28" s="47"/>
       <c r="O28" s="145" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="P28" s="149"/>
@@ -16711,20 +16824,20 @@
         <v>0</v>
       </c>
       <c r="AM28" s="48" t="b">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AN28" s="49"/>
       <c r="AO28" s="137" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#N/A</v>
       </c>
       <c r="AP28" s="137" t="b">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AQ28" s="48" t="b">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AR28" s="49"/>
@@ -16765,7 +16878,7 @@
         <v>0</v>
       </c>
       <c r="BB28" s="48" t="b">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="41"/>
         <v>0</v>
       </c>
       <c r="BC28" s="48" t="b">
@@ -16793,7 +16906,7 @@
         <v>0</v>
       </c>
       <c r="BI28" s="48" t="b">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>0</v>
       </c>
       <c r="BJ28" s="48" t="b">
@@ -16817,7 +16930,7 @@
       <c r="M29" s="154"/>
       <c r="N29" s="47"/>
       <c r="O29" s="145" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="P29" s="149"/>
@@ -16853,20 +16966,20 @@
         <v>0</v>
       </c>
       <c r="AM29" s="48" t="b">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AN29" s="49"/>
       <c r="AO29" s="137" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#N/A</v>
       </c>
       <c r="AP29" s="137" t="b">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AQ29" s="48" t="b">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AR29" s="49"/>
@@ -16907,7 +17020,7 @@
         <v>0</v>
       </c>
       <c r="BB29" s="48" t="b">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="41"/>
         <v>0</v>
       </c>
       <c r="BC29" s="48" t="b">
@@ -16935,7 +17048,7 @@
         <v>0</v>
       </c>
       <c r="BI29" s="48" t="b">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>0</v>
       </c>
       <c r="BJ29" s="48" t="b">
@@ -16959,7 +17072,7 @@
       <c r="M30" s="154"/>
       <c r="N30" s="47"/>
       <c r="O30" s="145" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="P30" s="149"/>
@@ -16995,20 +17108,20 @@
         <v>0</v>
       </c>
       <c r="AM30" s="48" t="b">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AN30" s="49"/>
       <c r="AO30" s="137" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#N/A</v>
       </c>
       <c r="AP30" s="137" t="b">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AQ30" s="48" t="b">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AR30" s="49"/>
@@ -17049,7 +17162,7 @@
         <v>0</v>
       </c>
       <c r="BB30" s="48" t="b">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="41"/>
         <v>0</v>
       </c>
       <c r="BC30" s="48" t="b">
@@ -17077,7 +17190,7 @@
         <v>0</v>
       </c>
       <c r="BI30" s="48" t="b">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>0</v>
       </c>
       <c r="BJ30" s="48" t="b">
@@ -17101,7 +17214,7 @@
       <c r="M31" s="154"/>
       <c r="N31" s="47"/>
       <c r="O31" s="145" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="P31" s="149"/>
@@ -17137,20 +17250,20 @@
         <v>0</v>
       </c>
       <c r="AM31" s="48" t="b">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AN31" s="49"/>
       <c r="AO31" s="137" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#N/A</v>
       </c>
       <c r="AP31" s="137" t="b">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AQ31" s="48" t="b">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AR31" s="49"/>
@@ -17191,7 +17304,7 @@
         <v>0</v>
       </c>
       <c r="BB31" s="48" t="b">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="41"/>
         <v>0</v>
       </c>
       <c r="BC31" s="48" t="b">
@@ -17219,7 +17332,7 @@
         <v>0</v>
       </c>
       <c r="BI31" s="48" t="b">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>0</v>
       </c>
       <c r="BJ31" s="48" t="b">
@@ -17243,7 +17356,7 @@
       <c r="M32" s="154"/>
       <c r="N32" s="47"/>
       <c r="O32" s="145" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="P32" s="149"/>
@@ -17279,20 +17392,20 @@
         <v>0</v>
       </c>
       <c r="AM32" s="48" t="b">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AN32" s="49"/>
       <c r="AO32" s="137" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#N/A</v>
       </c>
       <c r="AP32" s="137" t="b">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AQ32" s="48" t="b">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AR32" s="49"/>
@@ -17333,7 +17446,7 @@
         <v>0</v>
       </c>
       <c r="BB32" s="48" t="b">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="41"/>
         <v>0</v>
       </c>
       <c r="BC32" s="48" t="b">
@@ -17361,7 +17474,7 @@
         <v>0</v>
       </c>
       <c r="BI32" s="48" t="b">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>0</v>
       </c>
       <c r="BJ32" s="48" t="b">
@@ -17385,7 +17498,7 @@
       <c r="M33" s="154"/>
       <c r="N33" s="47"/>
       <c r="O33" s="145" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="P33" s="149"/>
@@ -17421,20 +17534,20 @@
         <v>0</v>
       </c>
       <c r="AM33" s="48" t="b">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AN33" s="49"/>
       <c r="AO33" s="137" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#N/A</v>
       </c>
       <c r="AP33" s="137" t="b">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AQ33" s="48" t="b">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AR33" s="49"/>
@@ -17475,7 +17588,7 @@
         <v>0</v>
       </c>
       <c r="BB33" s="48" t="b">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="41"/>
         <v>0</v>
       </c>
       <c r="BC33" s="48" t="b">
@@ -17503,7 +17616,7 @@
         <v>0</v>
       </c>
       <c r="BI33" s="48" t="b">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>0</v>
       </c>
       <c r="BJ33" s="48" t="b">
@@ -17527,7 +17640,7 @@
       <c r="M34" s="154"/>
       <c r="N34" s="47"/>
       <c r="O34" s="145" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="P34" s="149"/>
@@ -17563,20 +17676,20 @@
         <v>0</v>
       </c>
       <c r="AM34" s="48" t="b">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AN34" s="49"/>
       <c r="AO34" s="137" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#N/A</v>
       </c>
       <c r="AP34" s="137" t="b">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AQ34" s="48" t="b">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AR34" s="49"/>
@@ -17617,7 +17730,7 @@
         <v>0</v>
       </c>
       <c r="BB34" s="48" t="b">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="41"/>
         <v>0</v>
       </c>
       <c r="BC34" s="48" t="b">
@@ -17645,7 +17758,7 @@
         <v>0</v>
       </c>
       <c r="BI34" s="48" t="b">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>0</v>
       </c>
       <c r="BJ34" s="48" t="b">
@@ -17669,7 +17782,7 @@
       <c r="M35" s="154"/>
       <c r="N35" s="47"/>
       <c r="O35" s="145" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="P35" s="149"/>
@@ -17705,20 +17818,20 @@
         <v>0</v>
       </c>
       <c r="AM35" s="48" t="b">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AN35" s="49"/>
       <c r="AO35" s="137" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#N/A</v>
       </c>
       <c r="AP35" s="137" t="b">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AQ35" s="48" t="b">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AR35" s="49"/>
@@ -17759,7 +17872,7 @@
         <v>0</v>
       </c>
       <c r="BB35" s="48" t="b">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="41"/>
         <v>0</v>
       </c>
       <c r="BC35" s="48" t="b">
@@ -17787,7 +17900,7 @@
         <v>0</v>
       </c>
       <c r="BI35" s="48" t="b">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>0</v>
       </c>
       <c r="BJ35" s="48" t="b">
@@ -17811,7 +17924,7 @@
       <c r="M36" s="154"/>
       <c r="N36" s="47"/>
       <c r="O36" s="145" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="P36" s="149"/>
@@ -17847,20 +17960,20 @@
         <v>0</v>
       </c>
       <c r="AM36" s="48" t="b">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AN36" s="49"/>
       <c r="AO36" s="137" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#N/A</v>
       </c>
       <c r="AP36" s="137" t="b">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AQ36" s="48" t="b">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AR36" s="49"/>
@@ -17901,7 +18014,7 @@
         <v>0</v>
       </c>
       <c r="BB36" s="48" t="b">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="41"/>
         <v>0</v>
       </c>
       <c r="BC36" s="48" t="b">
@@ -17929,7 +18042,7 @@
         <v>0</v>
       </c>
       <c r="BI36" s="48" t="b">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>0</v>
       </c>
       <c r="BJ36" s="48" t="b">
@@ -17953,7 +18066,7 @@
       <c r="M37" s="154"/>
       <c r="N37" s="47"/>
       <c r="O37" s="145" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="P37" s="149"/>
@@ -17989,20 +18102,20 @@
         <v>0</v>
       </c>
       <c r="AM37" s="48" t="b">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AN37" s="49"/>
       <c r="AO37" s="137" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#N/A</v>
       </c>
       <c r="AP37" s="137" t="b">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AQ37" s="48" t="b">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AR37" s="49"/>
@@ -18043,7 +18156,7 @@
         <v>0</v>
       </c>
       <c r="BB37" s="48" t="b">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="41"/>
         <v>0</v>
       </c>
       <c r="BC37" s="48" t="b">
@@ -18071,7 +18184,7 @@
         <v>0</v>
       </c>
       <c r="BI37" s="48" t="b">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>0</v>
       </c>
       <c r="BJ37" s="48" t="b">
@@ -18095,7 +18208,7 @@
       <c r="M38" s="154"/>
       <c r="N38" s="47"/>
       <c r="O38" s="145" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="P38" s="149"/>
@@ -18131,20 +18244,20 @@
         <v>0</v>
       </c>
       <c r="AM38" s="48" t="b">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AN38" s="49"/>
       <c r="AO38" s="137" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#N/A</v>
       </c>
       <c r="AP38" s="137" t="b">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AQ38" s="48" t="b">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AR38" s="49"/>
@@ -18185,7 +18298,7 @@
         <v>0</v>
       </c>
       <c r="BB38" s="48" t="b">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="41"/>
         <v>0</v>
       </c>
       <c r="BC38" s="48" t="b">
@@ -18213,7 +18326,7 @@
         <v>0</v>
       </c>
       <c r="BI38" s="48" t="b">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>0</v>
       </c>
       <c r="BJ38" s="48" t="b">
@@ -18237,7 +18350,7 @@
       <c r="M39" s="154"/>
       <c r="N39" s="47"/>
       <c r="O39" s="145" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="P39" s="149"/>
@@ -18273,20 +18386,20 @@
         <v>0</v>
       </c>
       <c r="AM39" s="48" t="b">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AN39" s="49"/>
       <c r="AO39" s="137" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#N/A</v>
       </c>
       <c r="AP39" s="137" t="b">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AQ39" s="48" t="b">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AR39" s="49"/>
@@ -18327,7 +18440,7 @@
         <v>0</v>
       </c>
       <c r="BB39" s="48" t="b">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="41"/>
         <v>0</v>
       </c>
       <c r="BC39" s="48" t="b">
@@ -18355,7 +18468,7 @@
         <v>0</v>
       </c>
       <c r="BI39" s="48" t="b">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>0</v>
       </c>
       <c r="BJ39" s="48" t="b">
@@ -18379,7 +18492,7 @@
       <c r="M40" s="154"/>
       <c r="N40" s="47"/>
       <c r="O40" s="145" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="P40" s="149"/>
@@ -18415,20 +18528,20 @@
         <v>0</v>
       </c>
       <c r="AM40" s="48" t="b">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AN40" s="49"/>
       <c r="AO40" s="137" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#N/A</v>
       </c>
       <c r="AP40" s="137" t="b">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AQ40" s="48" t="b">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AR40" s="49"/>
@@ -18469,7 +18582,7 @@
         <v>0</v>
       </c>
       <c r="BB40" s="48" t="b">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="41"/>
         <v>0</v>
       </c>
       <c r="BC40" s="48" t="b">
@@ -18497,7 +18610,7 @@
         <v>0</v>
       </c>
       <c r="BI40" s="48" t="b">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>0</v>
       </c>
       <c r="BJ40" s="48" t="b">
@@ -18521,7 +18634,7 @@
       <c r="M41" s="154"/>
       <c r="N41" s="47"/>
       <c r="O41" s="145" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="P41" s="149"/>
@@ -18557,20 +18670,20 @@
         <v>0</v>
       </c>
       <c r="AM41" s="48" t="b">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AN41" s="49"/>
       <c r="AO41" s="137" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#N/A</v>
       </c>
       <c r="AP41" s="137" t="b">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AQ41" s="48" t="b">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AR41" s="49"/>
@@ -18611,7 +18724,7 @@
         <v>0</v>
       </c>
       <c r="BB41" s="48" t="b">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="41"/>
         <v>0</v>
       </c>
       <c r="BC41" s="48" t="b">
@@ -18639,7 +18752,7 @@
         <v>0</v>
       </c>
       <c r="BI41" s="48" t="b">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>0</v>
       </c>
       <c r="BJ41" s="48" t="b">
@@ -18663,7 +18776,7 @@
       <c r="M42" s="154"/>
       <c r="N42" s="47"/>
       <c r="O42" s="145" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="P42" s="149"/>
@@ -18699,20 +18812,20 @@
         <v>0</v>
       </c>
       <c r="AM42" s="48" t="b">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AN42" s="49"/>
       <c r="AO42" s="137" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#N/A</v>
       </c>
       <c r="AP42" s="137" t="b">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AQ42" s="48" t="b">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AR42" s="49"/>
@@ -18753,7 +18866,7 @@
         <v>0</v>
       </c>
       <c r="BB42" s="48" t="b">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="41"/>
         <v>0</v>
       </c>
       <c r="BC42" s="48" t="b">
@@ -18781,7 +18894,7 @@
         <v>0</v>
       </c>
       <c r="BI42" s="48" t="b">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>0</v>
       </c>
       <c r="BJ42" s="48" t="b">
@@ -18805,7 +18918,7 @@
       <c r="M43" s="154"/>
       <c r="N43" s="47"/>
       <c r="O43" s="145" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="P43" s="149"/>
@@ -18841,20 +18954,20 @@
         <v>0</v>
       </c>
       <c r="AM43" s="48" t="b">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AN43" s="49"/>
       <c r="AO43" s="137" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#N/A</v>
       </c>
       <c r="AP43" s="137" t="b">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AQ43" s="48" t="b">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AR43" s="49"/>
@@ -18895,7 +19008,7 @@
         <v>0</v>
       </c>
       <c r="BB43" s="48" t="b">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="41"/>
         <v>0</v>
       </c>
       <c r="BC43" s="48" t="b">
@@ -18923,7 +19036,7 @@
         <v>0</v>
       </c>
       <c r="BI43" s="48" t="b">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>0</v>
       </c>
       <c r="BJ43" s="48" t="b">
@@ -18947,7 +19060,7 @@
       <c r="M44" s="154"/>
       <c r="N44" s="47"/>
       <c r="O44" s="145" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="P44" s="149"/>
@@ -18983,20 +19096,20 @@
         <v>0</v>
       </c>
       <c r="AM44" s="48" t="b">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AN44" s="49"/>
       <c r="AO44" s="137" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#N/A</v>
       </c>
       <c r="AP44" s="137" t="b">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AQ44" s="48" t="b">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AR44" s="49"/>
@@ -19037,7 +19150,7 @@
         <v>0</v>
       </c>
       <c r="BB44" s="48" t="b">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="41"/>
         <v>0</v>
       </c>
       <c r="BC44" s="48" t="b">
@@ -19065,7 +19178,7 @@
         <v>0</v>
       </c>
       <c r="BI44" s="48" t="b">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>0</v>
       </c>
       <c r="BJ44" s="48" t="b">
@@ -19089,7 +19202,7 @@
       <c r="M45" s="154"/>
       <c r="N45" s="47"/>
       <c r="O45" s="145" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="P45" s="149"/>
@@ -19125,20 +19238,20 @@
         <v>0</v>
       </c>
       <c r="AM45" s="48" t="b">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AN45" s="49"/>
       <c r="AO45" s="137" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#N/A</v>
       </c>
       <c r="AP45" s="137" t="b">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AQ45" s="48" t="b">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AR45" s="49"/>
@@ -19179,7 +19292,7 @@
         <v>0</v>
       </c>
       <c r="BB45" s="48" t="b">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="41"/>
         <v>0</v>
       </c>
       <c r="BC45" s="48" t="b">
@@ -19207,7 +19320,7 @@
         <v>0</v>
       </c>
       <c r="BI45" s="48" t="b">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>0</v>
       </c>
       <c r="BJ45" s="48" t="b">
@@ -19231,7 +19344,7 @@
       <c r="M46" s="154"/>
       <c r="N46" s="47"/>
       <c r="O46" s="145" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="P46" s="149"/>
@@ -19267,20 +19380,20 @@
         <v>0</v>
       </c>
       <c r="AM46" s="48" t="b">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AN46" s="49"/>
       <c r="AO46" s="137" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#N/A</v>
       </c>
       <c r="AP46" s="137" t="b">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AQ46" s="48" t="b">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AR46" s="49"/>
@@ -19321,7 +19434,7 @@
         <v>0</v>
       </c>
       <c r="BB46" s="48" t="b">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="41"/>
         <v>0</v>
       </c>
       <c r="BC46" s="48" t="b">
@@ -19349,7 +19462,7 @@
         <v>0</v>
       </c>
       <c r="BI46" s="48" t="b">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>0</v>
       </c>
       <c r="BJ46" s="48" t="b">
@@ -19360,171 +19473,176 @@
   </sheetData>
   <autoFilter ref="A5:BJ5"/>
   <mergeCells count="8">
+    <mergeCell ref="AS3:BJ3"/>
+    <mergeCell ref="AJ3:AM3"/>
     <mergeCell ref="A3:L3"/>
     <mergeCell ref="AK4:AL4"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="Q4:AB4"/>
     <mergeCell ref="AO3:AQ3"/>
     <mergeCell ref="M3:AI3"/>
-    <mergeCell ref="AS3:BJ3"/>
-    <mergeCell ref="AJ3:AM3"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
-  <conditionalFormatting sqref="O6:O46">
-    <cfRule type="expression" dxfId="40" priority="0" stopIfTrue="1">
-      <formula>O6&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A6:A46">
-    <cfRule type="expression" dxfId="39" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="3" stopIfTrue="1">
       <formula>AND($AK6,NOT($BB6),$AL6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="4" stopIfTrue="1">
       <formula>$BB6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="5" stopIfTrue="1">
       <formula>AND($AK6,NOT($BB6),NOT($AL6))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B46">
-    <cfRule type="expression" dxfId="36" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="6" stopIfTrue="1">
       <formula>AND(NOT(ISBLANK(B6)),NOT(BC6))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="7" stopIfTrue="1">
       <formula>AND(NOT(ISBLANK(B6)),BC6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:G46">
-    <cfRule type="expression" dxfId="34" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="8" stopIfTrue="1">
       <formula>AND(NOT(ISBLANK(C6)),NOT(BD6))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="9" stopIfTrue="1">
       <formula>AND(NOT(ISBLANK(C6)),BD6,BC6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="10" stopIfTrue="1">
       <formula>AND(ISBLANK(B6),NOT(BC6))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H46">
-    <cfRule type="expression" dxfId="31" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="11" stopIfTrue="1">
       <formula>NOT(AK6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="12" stopIfTrue="1">
       <formula>AND(AK6,NOT(ISBLANK(H6)),NOT(H6))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="13" stopIfTrue="1">
       <formula>AND(AK6,NOT(ISBLANK(H6)),H6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:K46">
-    <cfRule type="expression" dxfId="28" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="14" stopIfTrue="1">
       <formula>NOT($AK6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="15" stopIfTrue="1">
       <formula>AND($AK6,NOT(ISBLANK(I6)),NOT($BI6))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="16" stopIfTrue="1">
       <formula>AND($AK6,NOT(ISBLANK(I6)),$BI6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:L46">
-    <cfRule type="expression" dxfId="25" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="17" stopIfTrue="1">
       <formula>NOT($AK6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="18" stopIfTrue="1">
       <formula>AND($AK6,NOT(ISBLANK(L6)),NOT($BJ6))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="19" stopIfTrue="1">
       <formula>AND($AK6,NOT(ISBLANK(L6)),$BJ6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5:AB5">
-    <cfRule type="expression" dxfId="22" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="20" stopIfTrue="1">
       <formula>Q5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:N46">
-    <cfRule type="expression" dxfId="21" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="21" stopIfTrue="1">
       <formula>NOT($AM6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="22" stopIfTrue="1">
       <formula>AND($AM6,NOT(ISBLANK(M6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P6:P46">
-    <cfRule type="expression" dxfId="19" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="23" stopIfTrue="1">
       <formula>O6=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="24" stopIfTrue="1">
       <formula>AND(O6&lt;&gt;"",$AP6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC6:AC46">
-    <cfRule type="expression" dxfId="17" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="25" stopIfTrue="1">
       <formula>NOT($AP6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="26" stopIfTrue="1">
       <formula>AND($AP6,NOT(ISBLANK(AC6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE6:AE46">
-    <cfRule type="expression" dxfId="15" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="27" stopIfTrue="1">
       <formula>NOT($AQ6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="28" stopIfTrue="1">
       <formula>AND($AQ6,NOT(ISBLANK(AE6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG6:AH46 AI7:AI46">
-    <cfRule type="expression" dxfId="13" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="29" stopIfTrue="1">
       <formula>NOT($AF6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="30" stopIfTrue="1">
       <formula>AND($AF6,NOT(ISBLANK(AG6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q6:AB46">
-    <cfRule type="expression" dxfId="11" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="31" stopIfTrue="1">
       <formula>OR(NOT($AP6),NOT(Q$2))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="32" stopIfTrue="1">
       <formula>AND($AP6,Q$2,NOT(ISBLANK(Q6)),Q6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="33" stopIfTrue="1">
       <formula>AND($AP6,Q$2,NOT(ISBLANK(Q6)),NOT(Q6))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD6:AD46">
-    <cfRule type="expression" dxfId="8" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="34" stopIfTrue="1">
       <formula>NOT($AQ6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="35" stopIfTrue="1">
       <formula>AND($AQ6,NOT(ISBLANK(AD6)),AD6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="36" stopIfTrue="1">
       <formula>AND($AQ6,NOT(ISBLANK(AD6)),NOT(AD6))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF6:AF46">
-    <cfRule type="expression" dxfId="5" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="37" stopIfTrue="1">
       <formula>NOT($AD6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="38" stopIfTrue="1">
       <formula>AND($AD6,NOT(ISBLANK(AF6)),AF6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="39" stopIfTrue="1">
       <formula>AND($AD6,NOT(ISBLANK(AF6)),NOT(AF6))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI6">
-    <cfRule type="expression" dxfId="2" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="40" stopIfTrue="1">
       <formula>NOT($AF6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="41" stopIfTrue="1">
       <formula>AND($AF6,NOT(ISBLANK(AI6)),AI6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="42" stopIfTrue="1">
       <formula>AND($AF6,NOT(ISBLANK(AI6)),NOT(AI6))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6">
+    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
+      <formula>O6&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O7:O46">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+      <formula>O7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="8">
@@ -19554,9 +19672,10 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -19564,14 +19683,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:AE2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.28515625" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.28515625" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="16384" width="2.28515625" style="156"/>
   </cols>
@@ -19866,7 +19985,7 @@
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -19874,14 +19993,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.42578125" customWidth="1"/>
@@ -20010,10 +20129,10 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="C3:H5">
-    <cfRule type="cellIs" dxfId="47" priority="0" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="0" stopIfTrue="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="0" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20024,7 +20143,7 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -20032,14 +20151,14 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.42578125" customWidth="1"/>
@@ -20197,10 +20316,10 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="C3:H6">
-    <cfRule type="cellIs" dxfId="45" priority="0" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="0" stopIfTrue="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="0" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20211,7 +20330,7 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -20219,14 +20338,14 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="3.42578125" bestFit="1" customWidth="1"/>
@@ -20314,7 +20433,7 @@
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -20322,14 +20441,14 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="3.42578125" customWidth="1"/>
@@ -20414,7 +20533,7 @@
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -20422,14 +20541,14 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="21.5703125" customWidth="1"/>
     <col min="2" max="7" width="3.42578125" customWidth="1"/>
@@ -20439,16 +20558,16 @@
       <c r="A1" s="243" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="169" t="s">
+      <c r="B1" s="178" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="170"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="169" t="s">
+      <c r="C1" s="179"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="178" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="170"/>
-      <c r="G1" s="171"/>
+      <c r="F1" s="179"/>
+      <c r="G1" s="180"/>
     </row>
     <row r="2" spans="1:7" ht="16">
       <c r="A2" s="244"/>
@@ -20619,10 +20738,10 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="B4:G9">
-    <cfRule type="cellIs" dxfId="43" priority="0" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="0" stopIfTrue="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="0" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20633,7 +20752,7 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -20641,14 +20760,14 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="2" max="2" width="48.42578125" customWidth="1"/>
@@ -20706,7 +20825,7 @@
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -20714,7 +20833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20722,7 +20841,7 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="28.140625" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" customWidth="1"/>
@@ -20765,14 +20884,13 @@
   <autoFilter ref="A1:C1"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="A2:C4">
-    <cfRule type="expression" dxfId="161" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="165" priority="0" stopIfTrue="1">
       <formula>A2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="rId1"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -20780,14 +20898,14 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="3.42578125" customWidth="1"/>
     <col min="3" max="6" width="23.140625" customWidth="1"/>
@@ -20991,13 +21109,13 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="C3:F11">
-    <cfRule type="expression" dxfId="41" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="0" stopIfTrue="1">
       <formula>ISNA(C3)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -21005,7 +21123,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21013,7 +21131,7 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="20.5703125" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
@@ -21077,14 +21195,13 @@
   <autoFilter ref="A1:E1"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="A2:E5">
-    <cfRule type="expression" dxfId="160" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="164" priority="0" stopIfTrue="1">
       <formula>A2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="rId1"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -21092,10 +21209,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BN41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="B3" sqref="B3"/>
@@ -21103,7 +21220,7 @@
       <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
@@ -21231,78 +21348,78 @@
       <c r="BN1" s="28"/>
     </row>
     <row r="2" spans="1:66" ht="16" hidden="1" customHeight="1">
-      <c r="A2" s="163" t="s">
+      <c r="A2" s="170" t="s">
         <v>223</v>
       </c>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164"/>
-      <c r="I2" s="164"/>
-      <c r="J2" s="164"/>
-      <c r="K2" s="164"/>
-      <c r="L2" s="164"/>
-      <c r="M2" s="164"/>
-      <c r="N2" s="164"/>
-      <c r="O2" s="164"/>
-      <c r="P2" s="164"/>
-      <c r="Q2" s="164"/>
-      <c r="R2" s="164"/>
-      <c r="S2" s="164"/>
-      <c r="T2" s="164"/>
-      <c r="U2" s="164"/>
-      <c r="V2" s="164"/>
-      <c r="W2" s="163" t="s">
+      <c r="B2" s="173"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="173"/>
+      <c r="I2" s="173"/>
+      <c r="J2" s="173"/>
+      <c r="K2" s="173"/>
+      <c r="L2" s="173"/>
+      <c r="M2" s="173"/>
+      <c r="N2" s="173"/>
+      <c r="O2" s="173"/>
+      <c r="P2" s="173"/>
+      <c r="Q2" s="173"/>
+      <c r="R2" s="173"/>
+      <c r="S2" s="173"/>
+      <c r="T2" s="173"/>
+      <c r="U2" s="173"/>
+      <c r="V2" s="173"/>
+      <c r="W2" s="170" t="s">
         <v>314</v>
       </c>
-      <c r="X2" s="164"/>
-      <c r="Y2" s="164"/>
-      <c r="Z2" s="164"/>
-      <c r="AA2" s="164"/>
-      <c r="AB2" s="164"/>
-      <c r="AC2" s="164"/>
-      <c r="AD2" s="164"/>
-      <c r="AE2" s="164"/>
-      <c r="AF2" s="164"/>
-      <c r="AG2" s="164"/>
-      <c r="AH2" s="164"/>
-      <c r="AI2" s="164"/>
-      <c r="AJ2" s="164"/>
-      <c r="AK2" s="164"/>
-      <c r="AM2" s="163" t="s">
+      <c r="X2" s="173"/>
+      <c r="Y2" s="173"/>
+      <c r="Z2" s="173"/>
+      <c r="AA2" s="173"/>
+      <c r="AB2" s="173"/>
+      <c r="AC2" s="173"/>
+      <c r="AD2" s="173"/>
+      <c r="AE2" s="173"/>
+      <c r="AF2" s="173"/>
+      <c r="AG2" s="173"/>
+      <c r="AH2" s="173"/>
+      <c r="AI2" s="173"/>
+      <c r="AJ2" s="173"/>
+      <c r="AK2" s="173"/>
+      <c r="AM2" s="170" t="s">
         <v>61</v>
       </c>
-      <c r="AN2" s="164"/>
-      <c r="AO2" s="164"/>
-      <c r="AP2" s="164"/>
-      <c r="AQ2" s="164"/>
-      <c r="AR2" s="164"/>
-      <c r="AS2" s="165"/>
-      <c r="AU2" s="163" t="s">
+      <c r="AN2" s="173"/>
+      <c r="AO2" s="173"/>
+      <c r="AP2" s="173"/>
+      <c r="AQ2" s="173"/>
+      <c r="AR2" s="173"/>
+      <c r="AS2" s="174"/>
+      <c r="AU2" s="170" t="s">
         <v>10</v>
       </c>
-      <c r="AV2" s="185"/>
-      <c r="AW2" s="185"/>
-      <c r="AX2" s="185"/>
-      <c r="AY2" s="185"/>
-      <c r="AZ2" s="185"/>
-      <c r="BA2" s="185"/>
-      <c r="BB2" s="185"/>
-      <c r="BC2" s="185"/>
-      <c r="BD2" s="185"/>
-      <c r="BE2" s="185"/>
-      <c r="BF2" s="185"/>
-      <c r="BG2" s="185"/>
-      <c r="BH2" s="185"/>
-      <c r="BI2" s="185"/>
-      <c r="BJ2" s="185"/>
-      <c r="BK2" s="185"/>
-      <c r="BL2" s="185"/>
-      <c r="BM2" s="185"/>
-      <c r="BN2" s="186"/>
+      <c r="AV2" s="168"/>
+      <c r="AW2" s="168"/>
+      <c r="AX2" s="168"/>
+      <c r="AY2" s="168"/>
+      <c r="AZ2" s="168"/>
+      <c r="BA2" s="168"/>
+      <c r="BB2" s="168"/>
+      <c r="BC2" s="168"/>
+      <c r="BD2" s="168"/>
+      <c r="BE2" s="168"/>
+      <c r="BF2" s="168"/>
+      <c r="BG2" s="168"/>
+      <c r="BH2" s="168"/>
+      <c r="BI2" s="168"/>
+      <c r="BJ2" s="168"/>
+      <c r="BK2" s="168"/>
+      <c r="BL2" s="168"/>
+      <c r="BM2" s="168"/>
+      <c r="BN2" s="169"/>
     </row>
     <row r="3" spans="1:66" ht="18" customHeight="1">
       <c r="A3" s="16"/>
@@ -21315,33 +21432,33 @@
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
-      <c r="K3" s="166" t="s">
+      <c r="K3" s="175" t="s">
         <v>300</v>
       </c>
-      <c r="L3" s="167"/>
-      <c r="M3" s="167"/>
-      <c r="N3" s="167"/>
-      <c r="O3" s="168"/>
-      <c r="P3" s="172" t="s">
+      <c r="L3" s="176"/>
+      <c r="M3" s="176"/>
+      <c r="N3" s="176"/>
+      <c r="O3" s="177"/>
+      <c r="P3" s="181" t="s">
         <v>301</v>
       </c>
-      <c r="Q3" s="167"/>
-      <c r="R3" s="167"/>
-      <c r="S3" s="167"/>
-      <c r="T3" s="167"/>
-      <c r="U3" s="167"/>
-      <c r="V3" s="173"/>
+      <c r="Q3" s="176"/>
+      <c r="R3" s="176"/>
+      <c r="S3" s="176"/>
+      <c r="T3" s="176"/>
+      <c r="U3" s="176"/>
+      <c r="V3" s="182"/>
       <c r="W3" s="32"/>
-      <c r="X3" s="177" t="s">
+      <c r="X3" s="186" t="s">
         <v>277</v>
       </c>
-      <c r="Y3" s="178"/>
-      <c r="Z3" s="179"/>
-      <c r="AA3" s="176" t="s">
+      <c r="Y3" s="187"/>
+      <c r="Z3" s="188"/>
+      <c r="AA3" s="185" t="s">
         <v>201</v>
       </c>
-      <c r="AB3" s="176"/>
-      <c r="AC3" s="176"/>
+      <c r="AB3" s="185"/>
+      <c r="AC3" s="185"/>
       <c r="AD3" s="31" t="s">
         <v>278</v>
       </c>
@@ -21377,34 +21494,34 @@
       <c r="AQ3" s="24"/>
       <c r="AR3" s="24"/>
       <c r="AS3" s="24"/>
-      <c r="AU3" s="187" t="s">
+      <c r="AU3" s="171" t="s">
         <v>32</v>
       </c>
-      <c r="AV3" s="188"/>
-      <c r="AW3" s="187" t="s">
+      <c r="AV3" s="172"/>
+      <c r="AW3" s="171" t="s">
         <v>35</v>
       </c>
-      <c r="AX3" s="188"/>
-      <c r="AY3" s="187" t="s">
+      <c r="AX3" s="172"/>
+      <c r="AY3" s="171" t="s">
         <v>36</v>
       </c>
-      <c r="AZ3" s="188"/>
-      <c r="BA3" s="183" t="s">
+      <c r="AZ3" s="172"/>
+      <c r="BA3" s="166" t="s">
         <v>37</v>
       </c>
-      <c r="BB3" s="184"/>
-      <c r="BC3" s="185"/>
-      <c r="BD3" s="185"/>
-      <c r="BE3" s="185"/>
-      <c r="BF3" s="185"/>
-      <c r="BG3" s="185"/>
-      <c r="BH3" s="185"/>
-      <c r="BI3" s="185"/>
-      <c r="BJ3" s="185"/>
-      <c r="BK3" s="185"/>
-      <c r="BL3" s="185"/>
-      <c r="BM3" s="185"/>
-      <c r="BN3" s="186"/>
+      <c r="BB3" s="167"/>
+      <c r="BC3" s="168"/>
+      <c r="BD3" s="168"/>
+      <c r="BE3" s="168"/>
+      <c r="BF3" s="168"/>
+      <c r="BG3" s="168"/>
+      <c r="BH3" s="168"/>
+      <c r="BI3" s="168"/>
+      <c r="BJ3" s="168"/>
+      <c r="BK3" s="168"/>
+      <c r="BL3" s="168"/>
+      <c r="BM3" s="168"/>
+      <c r="BN3" s="169"/>
     </row>
     <row r="4" spans="1:66" ht="19" customHeight="1">
       <c r="A4" s="16"/>
@@ -21423,11 +21540,11 @@
       <c r="N4" s="27"/>
       <c r="O4" s="27"/>
       <c r="P4" s="17"/>
-      <c r="Q4" s="169" t="s">
+      <c r="Q4" s="178" t="s">
         <v>303</v>
       </c>
-      <c r="R4" s="170"/>
-      <c r="S4" s="171"/>
+      <c r="R4" s="179"/>
+      <c r="S4" s="180"/>
       <c r="T4" s="15"/>
       <c r="U4" s="15"/>
       <c r="V4" s="15"/>
@@ -21435,11 +21552,11 @@
       <c r="X4" s="21"/>
       <c r="Y4" s="21"/>
       <c r="Z4" s="21"/>
-      <c r="AA4" s="174" t="s">
+      <c r="AA4" s="183" t="s">
         <v>299</v>
       </c>
-      <c r="AB4" s="175"/>
-      <c r="AC4" s="175"/>
+      <c r="AB4" s="184"/>
+      <c r="AC4" s="184"/>
       <c r="AD4" s="21"/>
       <c r="AE4" s="21"/>
       <c r="AF4" s="21"/>
@@ -21463,22 +21580,22 @@
       <c r="AZ4" s="36"/>
       <c r="BA4" s="36"/>
       <c r="BB4" s="36"/>
-      <c r="BC4" s="180" t="s">
+      <c r="BC4" s="163" t="s">
         <v>27</v>
       </c>
-      <c r="BD4" s="181"/>
-      <c r="BE4" s="181"/>
-      <c r="BF4" s="181"/>
-      <c r="BG4" s="181"/>
-      <c r="BH4" s="182"/>
-      <c r="BI4" s="180" t="s">
+      <c r="BD4" s="164"/>
+      <c r="BE4" s="164"/>
+      <c r="BF4" s="164"/>
+      <c r="BG4" s="164"/>
+      <c r="BH4" s="165"/>
+      <c r="BI4" s="163" t="s">
         <v>28</v>
       </c>
-      <c r="BJ4" s="181"/>
-      <c r="BK4" s="181"/>
-      <c r="BL4" s="181"/>
-      <c r="BM4" s="181"/>
-      <c r="BN4" s="182"/>
+      <c r="BJ4" s="164"/>
+      <c r="BK4" s="164"/>
+      <c r="BL4" s="164"/>
+      <c r="BM4" s="164"/>
+      <c r="BN4" s="165"/>
     </row>
     <row r="5" spans="1:66" ht="139" customHeight="1">
       <c r="A5" s="16" t="s">
@@ -30532,13 +30649,6 @@
     <sortCondition descending="1" ref="Z7:Z24"/>
   </sortState>
   <mergeCells count="16">
-    <mergeCell ref="BC4:BH4"/>
-    <mergeCell ref="BI4:BN4"/>
-    <mergeCell ref="BA3:BN3"/>
-    <mergeCell ref="AU2:BN2"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
     <mergeCell ref="A2:V2"/>
     <mergeCell ref="AM2:AS2"/>
     <mergeCell ref="K3:O3"/>
@@ -30548,187 +30658,194 @@
     <mergeCell ref="AA4:AC4"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="BC4:BH4"/>
+    <mergeCell ref="BI4:BN4"/>
+    <mergeCell ref="BA3:BN3"/>
+    <mergeCell ref="AU2:BN2"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="P6:P41">
-    <cfRule type="expression" dxfId="159" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="0" stopIfTrue="1">
       <formula>AND(NOT($AC6),NOT($F6))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="1" stopIfTrue="1">
       <formula>AND(OR($AC6,$F6),NOT(ISBLANK(P6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U6:U41">
-    <cfRule type="expression" dxfId="157" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="2" stopIfTrue="1">
       <formula>AND(NOT($AC6),NOT($AG6))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="160" priority="3" stopIfTrue="1">
       <formula>AND(OR($AC6,$AG6),NOT(ISBLANK(U6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V6:V41">
-    <cfRule type="expression" dxfId="155" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="4" stopIfTrue="1">
       <formula>NOT($AH6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="158" priority="5" stopIfTrue="1">
       <formula>AND($AH6,NOT(ISBLANK(V6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:O5">
-    <cfRule type="expression" dxfId="153" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="157" priority="6" stopIfTrue="1">
       <formula>K$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:O4">
-    <cfRule type="expression" dxfId="152" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="7" stopIfTrue="1">
       <formula>K$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:O41">
-    <cfRule type="expression" dxfId="151" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="8" stopIfTrue="1">
       <formula>NOT(K$1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="154" priority="9" stopIfTrue="1">
       <formula>AND(K$1,NOT(ISBLANK(K6)),NOT(K6))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="10" stopIfTrue="1">
       <formula>AND(K$1,NOT(ISBLANK(K6)),K6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C41">
-    <cfRule type="expression" dxfId="148" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="152" priority="11" stopIfTrue="1">
       <formula>AND(NOT($BC7),NOT(ISBLANK(C7)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="12" stopIfTrue="1">
       <formula>$BC7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D41">
-    <cfRule type="expression" dxfId="146" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="150" priority="13" stopIfTrue="1">
       <formula>NOT($AA6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="149" priority="14" stopIfTrue="1">
       <formula>AND($AA6,NOT(ISBLANK(D6)),NOT(D6))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="15" stopIfTrue="1">
       <formula>AND($AA6,NOT(ISBLANK(D6)),D6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E41">
-    <cfRule type="expression" dxfId="143" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="16" stopIfTrue="1">
       <formula>OR(NOT($AA6),NOT($AG6))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="17" stopIfTrue="1">
       <formula>AND($AA6,$AG6,NOT(ISBLANK(E6)),NOT(E6))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="18" stopIfTrue="1">
       <formula>AND($AA6,$AG6,NOT(ISBLANK(E6)),E6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G41">
-    <cfRule type="expression" dxfId="140" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="19" stopIfTrue="1">
       <formula>NOT($AA6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="20" stopIfTrue="1">
       <formula>AND($AA6, NOT(ISBLANK(G6)), NOT(AG6))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="21" stopIfTrue="1">
       <formula>AND($AA6, AG6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H41">
-    <cfRule type="expression" dxfId="137" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="22" stopIfTrue="1">
       <formula>ISBLANK(B6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="23" stopIfTrue="1">
       <formula>AND(NOT(ISBLANK(B6)), NOT(ISBLANK(H6)), NOT(AH6))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="24" stopIfTrue="1">
       <formula>AND(NOT(ISBLANK(B6)), AH6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:J41">
-    <cfRule type="expression" dxfId="134" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="25" stopIfTrue="1">
       <formula>OR(NOT($AB6),NOT($AH6))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="26" stopIfTrue="1">
       <formula>AND($AB6,$AH6,NOT(ISBLANK(I6)),NOT(I6))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="27" stopIfTrue="1">
       <formula>AND($AB6,$AH6,NOT(ISBLANK(I6)),I6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F41">
-    <cfRule type="expression" dxfId="131" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="28" stopIfTrue="1">
       <formula>NOT($AA6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="29" stopIfTrue="1">
       <formula>AND($AA6,NOT(ISBLANK(F6)),NOT($AF6))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="30" stopIfTrue="1">
       <formula>AND($AA6,$AF6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S6:T41">
-    <cfRule type="expression" dxfId="128" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="31" stopIfTrue="1">
       <formula>NOT($AH6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="32" stopIfTrue="1">
       <formula>AND($AH6,NOT(ISBLANK(S6)),NOT($BE6))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="33" stopIfTrue="1">
       <formula>AND($AH6,NOT(ISBLANK(S6)),$BE6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6:R41">
-    <cfRule type="expression" dxfId="125" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="34" stopIfTrue="1">
       <formula>NOT($AH6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="35" stopIfTrue="1">
       <formula>AND($AH6,NOT(ISBLANK(R6)),NOT($BE6))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="36" stopIfTrue="1">
       <formula>AND($AH6,NOT(ISBLANK(R6)),$BE6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q6:Q41">
-    <cfRule type="expression" dxfId="122" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="37" stopIfTrue="1">
       <formula>NOT($AH6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="38" stopIfTrue="1">
       <formula>AND($AH6,NOT(ISBLANK(Q6)),NOT($BE6))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="39" stopIfTrue="1">
       <formula>AND($AH6,NOT(ISBLANK(Q6)),$BE6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:A41">
-    <cfRule type="expression" dxfId="119" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="40" stopIfTrue="1">
       <formula>AND($X6,NOT($AQ6),$Y6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="41" stopIfTrue="1">
       <formula>$AQ6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="42" stopIfTrue="1">
       <formula>AND($X6,NOT($AQ6),NOT($Y6))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B41">
-    <cfRule type="expression" dxfId="116" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="43" stopIfTrue="1">
       <formula>AND(NOT(ISBLANK(B6)),NOT(AQ6))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="44" stopIfTrue="1">
       <formula>AND(NOT(ISBLANK(B6)),AQ6,AR6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="45" stopIfTrue="1">
       <formula>AND(NOT(ISBLANK(B6)),AQ6,NOT(AR6))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="113" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="46" stopIfTrue="1">
       <formula>AND(NOT($AQ6),NOT(ISBLANK(C6)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="47" stopIfTrue="1">
       <formula>$AQ6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30746,7 +30863,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -30754,7 +30871,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -30764,7 +30881,7 @@
       <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
@@ -30863,47 +30980,47 @@
       <c r="AJ1" s="28"/>
     </row>
     <row r="2" spans="1:36" ht="14" hidden="1" customHeight="1">
-      <c r="A2" s="163" t="s">
+      <c r="A2" s="170" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164"/>
-      <c r="I2" s="164"/>
-      <c r="J2" s="164"/>
-      <c r="K2" s="165"/>
-      <c r="L2" s="163" t="s">
+      <c r="B2" s="173"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="173"/>
+      <c r="I2" s="173"/>
+      <c r="J2" s="173"/>
+      <c r="K2" s="174"/>
+      <c r="L2" s="170" t="s">
         <v>184</v>
       </c>
-      <c r="M2" s="181"/>
-      <c r="N2" s="181"/>
-      <c r="O2" s="181"/>
+      <c r="M2" s="164"/>
+      <c r="N2" s="164"/>
+      <c r="O2" s="164"/>
       <c r="P2" s="192"/>
-      <c r="R2" s="163" t="s">
+      <c r="R2" s="170" t="s">
         <v>186</v>
       </c>
-      <c r="S2" s="185"/>
-      <c r="T2" s="185"/>
-      <c r="U2" s="185"/>
-      <c r="V2" s="185"/>
-      <c r="W2" s="185"/>
-      <c r="X2" s="185"/>
-      <c r="Y2" s="185"/>
-      <c r="Z2" s="185"/>
-      <c r="AA2" s="185"/>
-      <c r="AB2" s="185"/>
-      <c r="AC2" s="185"/>
-      <c r="AD2" s="185"/>
-      <c r="AE2" s="185"/>
-      <c r="AF2" s="185"/>
-      <c r="AG2" s="185"/>
-      <c r="AH2" s="185"/>
-      <c r="AI2" s="185"/>
-      <c r="AJ2" s="186"/>
+      <c r="S2" s="168"/>
+      <c r="T2" s="168"/>
+      <c r="U2" s="168"/>
+      <c r="V2" s="168"/>
+      <c r="W2" s="168"/>
+      <c r="X2" s="168"/>
+      <c r="Y2" s="168"/>
+      <c r="Z2" s="168"/>
+      <c r="AA2" s="168"/>
+      <c r="AB2" s="168"/>
+      <c r="AC2" s="168"/>
+      <c r="AD2" s="168"/>
+      <c r="AE2" s="168"/>
+      <c r="AF2" s="168"/>
+      <c r="AG2" s="168"/>
+      <c r="AH2" s="168"/>
+      <c r="AI2" s="168"/>
+      <c r="AJ2" s="169"/>
     </row>
     <row r="3" spans="1:36" ht="16">
       <c r="A3" s="16"/>
@@ -30912,13 +31029,13 @@
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
-      <c r="G3" s="166" t="s">
+      <c r="G3" s="175" t="s">
         <v>300</v>
       </c>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="173"/>
+      <c r="H3" s="176"/>
+      <c r="I3" s="176"/>
+      <c r="J3" s="176"/>
+      <c r="K3" s="182"/>
       <c r="L3" s="190" t="s">
         <v>185</v>
       </c>
@@ -30932,35 +31049,35 @@
       <c r="P3" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="R3" s="187" t="s">
+      <c r="R3" s="171" t="s">
         <v>179</v>
       </c>
-      <c r="S3" s="188"/>
-      <c r="T3" s="187" t="s">
+      <c r="S3" s="172"/>
+      <c r="T3" s="171" t="s">
         <v>172</v>
       </c>
-      <c r="U3" s="188"/>
-      <c r="V3" s="183" t="s">
+      <c r="U3" s="172"/>
+      <c r="V3" s="166" t="s">
         <v>88</v>
       </c>
-      <c r="W3" s="184"/>
+      <c r="W3" s="167"/>
       <c r="X3" s="189"/>
-      <c r="Y3" s="180" t="s">
+      <c r="Y3" s="163" t="s">
         <v>6</v>
       </c>
-      <c r="Z3" s="181"/>
-      <c r="AA3" s="181"/>
-      <c r="AB3" s="181"/>
-      <c r="AC3" s="181"/>
-      <c r="AD3" s="182"/>
-      <c r="AE3" s="180" t="s">
+      <c r="Z3" s="164"/>
+      <c r="AA3" s="164"/>
+      <c r="AB3" s="164"/>
+      <c r="AC3" s="164"/>
+      <c r="AD3" s="165"/>
+      <c r="AE3" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="AF3" s="181"/>
-      <c r="AG3" s="181"/>
-      <c r="AH3" s="181"/>
-      <c r="AI3" s="181"/>
-      <c r="AJ3" s="182"/>
+      <c r="AF3" s="164"/>
+      <c r="AG3" s="164"/>
+      <c r="AH3" s="164"/>
+      <c r="AI3" s="164"/>
+      <c r="AJ3" s="165"/>
     </row>
     <row r="4" spans="1:36" ht="105" customHeight="1">
       <c r="A4" s="16" t="s">
@@ -36264,61 +36381,61 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="B5:C38">
-    <cfRule type="expression" dxfId="111" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="0" stopIfTrue="1">
       <formula>NOT(ISBLANK(B5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A38">
-    <cfRule type="expression" dxfId="110" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="1" stopIfTrue="1">
       <formula>$L5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:K38">
-    <cfRule type="expression" dxfId="109" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="2" stopIfTrue="1">
       <formula>OR(NOT(G$1),NOT($L5))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="3" stopIfTrue="1">
       <formula>AND(G$1,$L5,NOT(ISBLANK(G5)),NOT(G5))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="4" stopIfTrue="1">
       <formula>AND(G$1,$L5,NOT(ISBLANK(G5)),G5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D38">
-    <cfRule type="expression" dxfId="106" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="5" stopIfTrue="1">
       <formula>NOT($L5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="6" stopIfTrue="1">
       <formula>AND($L5,NOT(ISBLANK(D5)),NOT(N5))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="7" stopIfTrue="1">
       <formula>AND($L5,N5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F38">
-    <cfRule type="expression" dxfId="103" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="8" stopIfTrue="1">
       <formula>NOT($L5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="9" stopIfTrue="1">
       <formula>AND($L5, NOT(ISBLANK(F5)), NOT(P5))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="10" stopIfTrue="1">
       <formula>AND($L5, P5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:E38">
-    <cfRule type="expression" dxfId="100" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="11" stopIfTrue="1">
       <formula>OR(NOT($L5),$D5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="12" stopIfTrue="1">
       <formula>AND($L5,NOT($N5),NOT(ISBLANK(E5)),NOT(O5))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="13" stopIfTrue="1">
       <formula>AND($L5,NOT($N5),O5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:K4">
-    <cfRule type="expression" dxfId="97" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="14" stopIfTrue="1">
       <formula>G$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36333,7 +36450,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -36341,7 +36458,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BN39"/>
   <sheetViews>
     <sheetView topLeftCell="B6" workbookViewId="0">
@@ -36352,7 +36469,7 @@
       <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="5.42578125" hidden="1" customWidth="1"/>
     <col min="2" max="4" width="7.42578125" customWidth="1"/>
@@ -36366,7 +36483,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="39" hidden="1">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="203" t="s">
         <v>126</v>
       </c>
       <c r="B1" s="22"/>
@@ -36376,7 +36493,7 @@
       <c r="F1" s="22"/>
       <c r="G1" s="22"/>
       <c r="H1" s="22"/>
-      <c r="I1" s="206" t="s">
+      <c r="I1" s="201" t="s">
         <v>19</v>
       </c>
       <c r="J1" s="67" t="s">
@@ -36582,7 +36699,7 @@
       <c r="BL1" s="22"/>
     </row>
     <row r="2" spans="1:66" ht="39" hidden="1">
-      <c r="A2" s="212"/>
+      <c r="A2" s="204"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -36593,7 +36710,7 @@
         <f>COLUMN(Actors!$E$5)</f>
         <v>5</v>
       </c>
-      <c r="I2" s="207"/>
+      <c r="I2" s="202"/>
       <c r="J2" s="67" t="s">
         <v>81</v>
       </c>
@@ -36797,7 +36914,7 @@
       <c r="BL2" s="22"/>
     </row>
     <row r="3" spans="1:66" ht="13" hidden="1" customHeight="1">
-      <c r="A3" s="212"/>
+      <c r="A3" s="204"/>
       <c r="B3" s="22"/>
       <c r="C3" s="22">
         <f>ROW($C$8)-2</f>
@@ -36875,7 +36992,7 @@
       <c r="BL3" s="22"/>
     </row>
     <row r="4" spans="1:66" ht="13" hidden="1" customHeight="1">
-      <c r="A4" s="212"/>
+      <c r="A4" s="204"/>
       <c r="B4" s="22"/>
       <c r="C4" s="22">
         <f>COLUMN($K$7)-3</f>
@@ -36977,79 +37094,79 @@
       </c>
     </row>
     <row r="5" spans="1:66" ht="33" hidden="1" customHeight="1">
-      <c r="A5" s="212"/>
-      <c r="B5" s="177" t="s">
+      <c r="A5" s="204"/>
+      <c r="B5" s="186" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
-      <c r="J5" s="179"/>
-      <c r="K5" s="163" t="s">
+      <c r="C5" s="187"/>
+      <c r="D5" s="187"/>
+      <c r="E5" s="187"/>
+      <c r="F5" s="187"/>
+      <c r="G5" s="187"/>
+      <c r="H5" s="187"/>
+      <c r="I5" s="187"/>
+      <c r="J5" s="188"/>
+      <c r="K5" s="170" t="s">
         <v>87</v>
       </c>
-      <c r="L5" s="185"/>
-      <c r="M5" s="185"/>
-      <c r="N5" s="185"/>
-      <c r="O5" s="185"/>
-      <c r="P5" s="185"/>
-      <c r="Q5" s="185"/>
-      <c r="R5" s="185"/>
-      <c r="S5" s="185"/>
-      <c r="T5" s="185"/>
-      <c r="U5" s="185"/>
-      <c r="V5" s="185"/>
-      <c r="W5" s="185"/>
-      <c r="X5" s="185"/>
-      <c r="Y5" s="185"/>
-      <c r="Z5" s="185"/>
-      <c r="AA5" s="185"/>
-      <c r="AB5" s="185"/>
-      <c r="AC5" s="185"/>
-      <c r="AD5" s="185"/>
-      <c r="AE5" s="185"/>
-      <c r="AF5" s="185"/>
-      <c r="AG5" s="185"/>
-      <c r="AH5" s="185"/>
-      <c r="AI5" s="185"/>
-      <c r="AJ5" s="185"/>
-      <c r="AK5" s="185"/>
-      <c r="AL5" s="185"/>
-      <c r="AM5" s="185"/>
-      <c r="AN5" s="185"/>
-      <c r="AO5" s="185"/>
-      <c r="AP5" s="185"/>
-      <c r="AQ5" s="185"/>
-      <c r="AR5" s="185"/>
-      <c r="AS5" s="185"/>
-      <c r="AT5" s="185"/>
-      <c r="AU5" s="185"/>
-      <c r="AV5" s="185"/>
-      <c r="AW5" s="185"/>
-      <c r="AX5" s="185"/>
-      <c r="AY5" s="185"/>
-      <c r="AZ5" s="185"/>
-      <c r="BA5" s="185"/>
-      <c r="BB5" s="185"/>
-      <c r="BC5" s="185"/>
-      <c r="BD5" s="185"/>
-      <c r="BE5" s="185"/>
-      <c r="BF5" s="186"/>
-      <c r="BG5" s="177" t="s">
+      <c r="L5" s="168"/>
+      <c r="M5" s="168"/>
+      <c r="N5" s="168"/>
+      <c r="O5" s="168"/>
+      <c r="P5" s="168"/>
+      <c r="Q5" s="168"/>
+      <c r="R5" s="168"/>
+      <c r="S5" s="168"/>
+      <c r="T5" s="168"/>
+      <c r="U5" s="168"/>
+      <c r="V5" s="168"/>
+      <c r="W5" s="168"/>
+      <c r="X5" s="168"/>
+      <c r="Y5" s="168"/>
+      <c r="Z5" s="168"/>
+      <c r="AA5" s="168"/>
+      <c r="AB5" s="168"/>
+      <c r="AC5" s="168"/>
+      <c r="AD5" s="168"/>
+      <c r="AE5" s="168"/>
+      <c r="AF5" s="168"/>
+      <c r="AG5" s="168"/>
+      <c r="AH5" s="168"/>
+      <c r="AI5" s="168"/>
+      <c r="AJ5" s="168"/>
+      <c r="AK5" s="168"/>
+      <c r="AL5" s="168"/>
+      <c r="AM5" s="168"/>
+      <c r="AN5" s="168"/>
+      <c r="AO5" s="168"/>
+      <c r="AP5" s="168"/>
+      <c r="AQ5" s="168"/>
+      <c r="AR5" s="168"/>
+      <c r="AS5" s="168"/>
+      <c r="AT5" s="168"/>
+      <c r="AU5" s="168"/>
+      <c r="AV5" s="168"/>
+      <c r="AW5" s="168"/>
+      <c r="AX5" s="168"/>
+      <c r="AY5" s="168"/>
+      <c r="AZ5" s="168"/>
+      <c r="BA5" s="168"/>
+      <c r="BB5" s="168"/>
+      <c r="BC5" s="168"/>
+      <c r="BD5" s="168"/>
+      <c r="BE5" s="168"/>
+      <c r="BF5" s="169"/>
+      <c r="BG5" s="186" t="s">
         <v>79</v>
       </c>
-      <c r="BH5" s="208"/>
-      <c r="BI5" s="178"/>
-      <c r="BJ5" s="178"/>
-      <c r="BK5" s="178"/>
-      <c r="BL5" s="179"/>
+      <c r="BH5" s="193"/>
+      <c r="BI5" s="187"/>
+      <c r="BJ5" s="187"/>
+      <c r="BK5" s="187"/>
+      <c r="BL5" s="188"/>
     </row>
     <row r="6" spans="1:66" ht="16" customHeight="1">
-      <c r="A6" s="212"/>
+      <c r="A6" s="204"/>
       <c r="B6" s="61" t="s">
         <v>123</v>
       </c>
@@ -37059,75 +37176,75 @@
       <c r="D6" s="63" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="177" t="s">
+      <c r="E6" s="186" t="s">
         <v>128</v>
       </c>
-      <c r="F6" s="208"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
-      <c r="J6" s="179"/>
-      <c r="K6" s="200" t="s">
+      <c r="F6" s="193"/>
+      <c r="G6" s="187"/>
+      <c r="H6" s="187"/>
+      <c r="I6" s="187"/>
+      <c r="J6" s="188"/>
+      <c r="K6" s="212" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="201"/>
-      <c r="M6" s="201"/>
-      <c r="N6" s="201"/>
-      <c r="O6" s="201"/>
-      <c r="P6" s="201"/>
-      <c r="Q6" s="201"/>
-      <c r="R6" s="201"/>
-      <c r="S6" s="201"/>
-      <c r="T6" s="201"/>
-      <c r="U6" s="201"/>
-      <c r="V6" s="201"/>
-      <c r="W6" s="201"/>
-      <c r="X6" s="201"/>
-      <c r="Y6" s="201"/>
-      <c r="Z6" s="201"/>
-      <c r="AA6" s="201"/>
-      <c r="AB6" s="201"/>
-      <c r="AC6" s="201"/>
-      <c r="AD6" s="201"/>
-      <c r="AE6" s="201"/>
-      <c r="AF6" s="201"/>
-      <c r="AG6" s="201"/>
-      <c r="AH6" s="201"/>
-      <c r="AI6" s="201"/>
-      <c r="AJ6" s="201"/>
-      <c r="AK6" s="201"/>
-      <c r="AL6" s="201"/>
-      <c r="AM6" s="201"/>
-      <c r="AN6" s="201"/>
-      <c r="AO6" s="201"/>
-      <c r="AP6" s="201"/>
-      <c r="AQ6" s="201"/>
-      <c r="AR6" s="201"/>
-      <c r="AS6" s="201"/>
-      <c r="AT6" s="201"/>
-      <c r="AU6" s="201"/>
-      <c r="AV6" s="201"/>
-      <c r="AW6" s="201"/>
-      <c r="AX6" s="201"/>
-      <c r="AY6" s="201"/>
-      <c r="AZ6" s="201"/>
-      <c r="BA6" s="201"/>
-      <c r="BB6" s="201"/>
-      <c r="BC6" s="201"/>
-      <c r="BD6" s="201"/>
-      <c r="BE6" s="201"/>
-      <c r="BF6" s="202"/>
-      <c r="BG6" s="177" t="s">
+      <c r="L6" s="213"/>
+      <c r="M6" s="213"/>
+      <c r="N6" s="213"/>
+      <c r="O6" s="213"/>
+      <c r="P6" s="213"/>
+      <c r="Q6" s="213"/>
+      <c r="R6" s="213"/>
+      <c r="S6" s="213"/>
+      <c r="T6" s="213"/>
+      <c r="U6" s="213"/>
+      <c r="V6" s="213"/>
+      <c r="W6" s="213"/>
+      <c r="X6" s="213"/>
+      <c r="Y6" s="213"/>
+      <c r="Z6" s="213"/>
+      <c r="AA6" s="213"/>
+      <c r="AB6" s="213"/>
+      <c r="AC6" s="213"/>
+      <c r="AD6" s="213"/>
+      <c r="AE6" s="213"/>
+      <c r="AF6" s="213"/>
+      <c r="AG6" s="213"/>
+      <c r="AH6" s="213"/>
+      <c r="AI6" s="213"/>
+      <c r="AJ6" s="213"/>
+      <c r="AK6" s="213"/>
+      <c r="AL6" s="213"/>
+      <c r="AM6" s="213"/>
+      <c r="AN6" s="213"/>
+      <c r="AO6" s="213"/>
+      <c r="AP6" s="213"/>
+      <c r="AQ6" s="213"/>
+      <c r="AR6" s="213"/>
+      <c r="AS6" s="213"/>
+      <c r="AT6" s="213"/>
+      <c r="AU6" s="213"/>
+      <c r="AV6" s="213"/>
+      <c r="AW6" s="213"/>
+      <c r="AX6" s="213"/>
+      <c r="AY6" s="213"/>
+      <c r="AZ6" s="213"/>
+      <c r="BA6" s="213"/>
+      <c r="BB6" s="213"/>
+      <c r="BC6" s="213"/>
+      <c r="BD6" s="213"/>
+      <c r="BE6" s="213"/>
+      <c r="BF6" s="214"/>
+      <c r="BG6" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="BH6" s="208"/>
-      <c r="BI6" s="178"/>
-      <c r="BJ6" s="178"/>
-      <c r="BK6" s="178"/>
-      <c r="BL6" s="179"/>
+      <c r="BH6" s="193"/>
+      <c r="BI6" s="187"/>
+      <c r="BJ6" s="187"/>
+      <c r="BK6" s="187"/>
+      <c r="BL6" s="188"/>
     </row>
     <row r="7" spans="1:66" ht="39" customHeight="1">
-      <c r="A7" s="213"/>
+      <c r="A7" s="205"/>
       <c r="B7" s="64" t="s">
         <v>122</v>
       </c>
@@ -37146,139 +37263,139 @@
       <c r="G7" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="H7" s="174" t="s">
+      <c r="H7" s="183" t="s">
         <v>121</v>
       </c>
-      <c r="I7" s="209"/>
-      <c r="J7" s="210"/>
-      <c r="K7" s="203" t="str">
+      <c r="I7" s="194"/>
+      <c r="J7" s="195"/>
+      <c r="K7" s="198" t="str">
         <f ca="1">IFERROR(INDEX(FavoredUserName,(COLUMN(K7)-$C$4)/3),"")</f>
         <v/>
       </c>
-      <c r="L7" s="204"/>
-      <c r="M7" s="205"/>
-      <c r="N7" s="203" t="str">
+      <c r="L7" s="199"/>
+      <c r="M7" s="200"/>
+      <c r="N7" s="198" t="str">
         <f t="shared" ref="N7" ca="1" si="76">IFERROR(INDEX(FavoredUserName,(COLUMN(N7)-$C$4)/3),"")</f>
         <v/>
       </c>
-      <c r="O7" s="204"/>
-      <c r="P7" s="205"/>
-      <c r="Q7" s="203" t="str">
+      <c r="O7" s="199"/>
+      <c r="P7" s="200"/>
+      <c r="Q7" s="198" t="str">
         <f t="shared" ref="Q7" ca="1" si="77">IFERROR(INDEX(FavoredUserName,(COLUMN(Q7)-$C$4)/3),"")</f>
         <v/>
       </c>
-      <c r="R7" s="204"/>
-      <c r="S7" s="205"/>
-      <c r="T7" s="203" t="str">
+      <c r="R7" s="199"/>
+      <c r="S7" s="200"/>
+      <c r="T7" s="198" t="str">
         <f t="shared" ref="T7" ca="1" si="78">IFERROR(INDEX(FavoredUserName,(COLUMN(T7)-$C$4)/3),"")</f>
         <v/>
       </c>
-      <c r="U7" s="204"/>
-      <c r="V7" s="205"/>
-      <c r="W7" s="203" t="str">
+      <c r="U7" s="199"/>
+      <c r="V7" s="200"/>
+      <c r="W7" s="198" t="str">
         <f t="shared" ref="W7" ca="1" si="79">IFERROR(INDEX(FavoredUserName,(COLUMN(W7)-$C$4)/3),"")</f>
         <v/>
       </c>
-      <c r="X7" s="204"/>
-      <c r="Y7" s="205"/>
-      <c r="Z7" s="203" t="str">
+      <c r="X7" s="199"/>
+      <c r="Y7" s="200"/>
+      <c r="Z7" s="198" t="str">
         <f t="shared" ref="Z7" ca="1" si="80">IFERROR(INDEX(FavoredUserName,(COLUMN(Z7)-$C$4)/3),"")</f>
         <v/>
       </c>
-      <c r="AA7" s="204"/>
-      <c r="AB7" s="205"/>
-      <c r="AC7" s="203" t="str">
+      <c r="AA7" s="199"/>
+      <c r="AB7" s="200"/>
+      <c r="AC7" s="198" t="str">
         <f t="shared" ref="AC7" ca="1" si="81">IFERROR(INDEX(FavoredUserName,(COLUMN(AC7)-$C$4)/3),"")</f>
         <v/>
       </c>
-      <c r="AD7" s="204"/>
-      <c r="AE7" s="205"/>
-      <c r="AF7" s="203" t="str">
+      <c r="AD7" s="199"/>
+      <c r="AE7" s="200"/>
+      <c r="AF7" s="198" t="str">
         <f t="shared" ref="AF7" ca="1" si="82">IFERROR(INDEX(FavoredUserName,(COLUMN(AF7)-$C$4)/3),"")</f>
         <v/>
       </c>
-      <c r="AG7" s="204"/>
-      <c r="AH7" s="205"/>
-      <c r="AI7" s="203" t="str">
+      <c r="AG7" s="199"/>
+      <c r="AH7" s="200"/>
+      <c r="AI7" s="198" t="str">
         <f t="shared" ref="AI7" ca="1" si="83">IFERROR(INDEX(FavoredUserName,(COLUMN(AI7)-$C$4)/3),"")</f>
         <v/>
       </c>
-      <c r="AJ7" s="204"/>
-      <c r="AK7" s="205"/>
-      <c r="AL7" s="203" t="str">
+      <c r="AJ7" s="199"/>
+      <c r="AK7" s="200"/>
+      <c r="AL7" s="198" t="str">
         <f t="shared" ref="AL7" ca="1" si="84">IFERROR(INDEX(FavoredUserName,(COLUMN(AL7)-$C$4)/3),"")</f>
         <v/>
       </c>
-      <c r="AM7" s="204"/>
-      <c r="AN7" s="205"/>
-      <c r="AO7" s="203" t="str">
+      <c r="AM7" s="199"/>
+      <c r="AN7" s="200"/>
+      <c r="AO7" s="198" t="str">
         <f t="shared" ref="AO7" ca="1" si="85">IFERROR(INDEX(FavoredUserName,(COLUMN(AO7)-$C$4)/3),"")</f>
         <v/>
       </c>
-      <c r="AP7" s="204"/>
-      <c r="AQ7" s="205"/>
-      <c r="AR7" s="203" t="str">
+      <c r="AP7" s="199"/>
+      <c r="AQ7" s="200"/>
+      <c r="AR7" s="198" t="str">
         <f t="shared" ref="AR7" ca="1" si="86">IFERROR(INDEX(FavoredUserName,(COLUMN(AR7)-$C$4)/3),"")</f>
         <v/>
       </c>
-      <c r="AS7" s="204"/>
-      <c r="AT7" s="205"/>
-      <c r="AU7" s="203" t="str">
+      <c r="AS7" s="199"/>
+      <c r="AT7" s="200"/>
+      <c r="AU7" s="198" t="str">
         <f t="shared" ref="AU7" ca="1" si="87">IFERROR(INDEX(FavoredUserName,(COLUMN(AU7)-$C$4)/3),"")</f>
         <v/>
       </c>
-      <c r="AV7" s="204"/>
-      <c r="AW7" s="205"/>
-      <c r="AX7" s="203" t="str">
+      <c r="AV7" s="199"/>
+      <c r="AW7" s="200"/>
+      <c r="AX7" s="198" t="str">
         <f t="shared" ref="AX7" ca="1" si="88">IFERROR(INDEX(FavoredUserName,(COLUMN(AX7)-$C$4)/3),"")</f>
         <v/>
       </c>
-      <c r="AY7" s="204"/>
-      <c r="AZ7" s="205"/>
-      <c r="BA7" s="203" t="str">
+      <c r="AY7" s="199"/>
+      <c r="AZ7" s="200"/>
+      <c r="BA7" s="198" t="str">
         <f t="shared" ref="BA7" ca="1" si="89">IFERROR(INDEX(FavoredUserName,(COLUMN(BA7)-$C$4)/3),"")</f>
         <v/>
       </c>
-      <c r="BB7" s="204"/>
-      <c r="BC7" s="205"/>
-      <c r="BD7" s="203" t="str">
+      <c r="BB7" s="199"/>
+      <c r="BC7" s="200"/>
+      <c r="BD7" s="198" t="str">
         <f t="shared" ref="BD7" ca="1" si="90">IFERROR(INDEX(FavoredUserName,(COLUMN(BD7)-$C$4)/3),"")</f>
         <v/>
       </c>
-      <c r="BE7" s="204"/>
-      <c r="BF7" s="205"/>
-      <c r="BG7" s="174" t="s">
+      <c r="BE7" s="199"/>
+      <c r="BF7" s="200"/>
+      <c r="BG7" s="183" t="s">
         <v>13</v>
       </c>
-      <c r="BH7" s="209"/>
-      <c r="BI7" s="210"/>
-      <c r="BJ7" s="174" t="s">
+      <c r="BH7" s="194"/>
+      <c r="BI7" s="195"/>
+      <c r="BJ7" s="183" t="s">
         <v>14</v>
       </c>
-      <c r="BK7" s="209"/>
-      <c r="BL7" s="210"/>
+      <c r="BK7" s="194"/>
+      <c r="BL7" s="195"/>
     </row>
     <row r="8" spans="1:66">
-      <c r="A8" s="206" t="s">
+      <c r="A8" s="201" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="197" t="s">
+      <c r="B8" s="215" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="193" t="str">
+      <c r="C8" s="208" t="str">
         <f ca="1">IFERROR(INDEX(AssetName,(ROW()-$C$3)/2),"")</f>
         <v/>
       </c>
-      <c r="D8" s="194"/>
-      <c r="E8" s="214" t="e">
+      <c r="D8" s="209"/>
+      <c r="E8" s="196" t="e">
         <f ca="1">VLOOKUP($C8,RawDataTable,E$4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F8" s="214" t="b">
+      <c r="F8" s="196" t="b">
         <f ca="1">IF(ISNA(E8),FALSE,E8&lt;&gt;0)</f>
         <v>0</v>
       </c>
-      <c r="G8" s="214" t="b">
+      <c r="G8" s="196" t="b">
         <f ca="1">IFERROR(NOT(VLOOKUP($C8,RawDataTable,G$4,FALSE)),TRUE)</f>
         <v>1</v>
       </c>
@@ -37380,13 +37497,13 @@
       </c>
     </row>
     <row r="9" spans="1:66">
-      <c r="A9" s="216"/>
-      <c r="B9" s="198"/>
-      <c r="C9" s="195"/>
-      <c r="D9" s="196"/>
-      <c r="E9" s="215"/>
-      <c r="F9" s="215"/>
-      <c r="G9" s="215"/>
+      <c r="A9" s="206"/>
+      <c r="B9" s="216"/>
+      <c r="C9" s="210"/>
+      <c r="D9" s="211"/>
+      <c r="E9" s="197"/>
+      <c r="F9" s="197"/>
+      <c r="G9" s="197"/>
       <c r="H9" s="72" t="b">
         <f t="shared" ref="H9" ca="1" si="96">IF($F8,VLOOKUP($E8,DataPossibleActions,H$4,FALSE), FALSE)</f>
         <v>0</v>
@@ -37477,22 +37594,22 @@
       </c>
     </row>
     <row r="10" spans="1:66" ht="13" customHeight="1">
-      <c r="A10" s="216"/>
-      <c r="B10" s="198"/>
-      <c r="C10" s="193" t="str">
+      <c r="A10" s="206"/>
+      <c r="B10" s="216"/>
+      <c r="C10" s="208" t="str">
         <f t="shared" ref="C10" ca="1" si="99">IFERROR(INDEX(AssetName,(ROW()-$C$3)/2),"")</f>
         <v/>
       </c>
-      <c r="D10" s="194"/>
-      <c r="E10" s="214" t="e">
+      <c r="D10" s="209"/>
+      <c r="E10" s="196" t="e">
         <f t="shared" ref="E10" ca="1" si="100">VLOOKUP($C10,RawDataTable,E$4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F10" s="214" t="b">
+      <c r="F10" s="196" t="b">
         <f t="shared" ref="F10" ca="1" si="101">IF(ISNA(E10),FALSE,E10&lt;&gt;0)</f>
         <v>0</v>
       </c>
-      <c r="G10" s="214" t="b">
+      <c r="G10" s="196" t="b">
         <f t="shared" ref="G10" ca="1" si="102">IFERROR(NOT(VLOOKUP($C10,RawDataTable,G$4,FALSE)),TRUE)</f>
         <v>1</v>
       </c>
@@ -37587,13 +37704,13 @@
       <c r="BN10" s="75"/>
     </row>
     <row r="11" spans="1:66">
-      <c r="A11" s="216"/>
-      <c r="B11" s="198"/>
-      <c r="C11" s="195"/>
-      <c r="D11" s="196"/>
-      <c r="E11" s="215"/>
-      <c r="F11" s="215"/>
-      <c r="G11" s="215"/>
+      <c r="A11" s="206"/>
+      <c r="B11" s="216"/>
+      <c r="C11" s="210"/>
+      <c r="D11" s="211"/>
+      <c r="E11" s="197"/>
+      <c r="F11" s="197"/>
+      <c r="G11" s="197"/>
       <c r="H11" s="72" t="b">
         <f t="shared" ref="H11" ca="1" si="106">IF($F10,VLOOKUP($E10,DataPossibleActions,H$4,FALSE), FALSE)</f>
         <v>0</v>
@@ -37682,22 +37799,22 @@
       </c>
     </row>
     <row r="12" spans="1:66" ht="13" customHeight="1">
-      <c r="A12" s="216"/>
-      <c r="B12" s="198"/>
-      <c r="C12" s="193" t="str">
+      <c r="A12" s="206"/>
+      <c r="B12" s="216"/>
+      <c r="C12" s="208" t="str">
         <f t="shared" ref="C12" ca="1" si="110">IFERROR(INDEX(AssetName,(ROW()-$C$3)/2),"")</f>
         <v/>
       </c>
-      <c r="D12" s="194"/>
-      <c r="E12" s="214" t="e">
+      <c r="D12" s="209"/>
+      <c r="E12" s="196" t="e">
         <f t="shared" ref="E12" ca="1" si="111">VLOOKUP($C12,RawDataTable,E$4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F12" s="214" t="b">
+      <c r="F12" s="196" t="b">
         <f t="shared" ref="F12" ca="1" si="112">IF(ISNA(E12),FALSE,E12&lt;&gt;0)</f>
         <v>0</v>
       </c>
-      <c r="G12" s="214" t="b">
+      <c r="G12" s="196" t="b">
         <f t="shared" ref="G12" ca="1" si="113">IFERROR(NOT(VLOOKUP($C12,RawDataTable,G$4,FALSE)),TRUE)</f>
         <v>1</v>
       </c>
@@ -37787,13 +37904,13 @@
       </c>
     </row>
     <row r="13" spans="1:66">
-      <c r="A13" s="216"/>
-      <c r="B13" s="198"/>
-      <c r="C13" s="195"/>
-      <c r="D13" s="196"/>
-      <c r="E13" s="215"/>
-      <c r="F13" s="215"/>
-      <c r="G13" s="215"/>
+      <c r="A13" s="206"/>
+      <c r="B13" s="216"/>
+      <c r="C13" s="210"/>
+      <c r="D13" s="211"/>
+      <c r="E13" s="197"/>
+      <c r="F13" s="197"/>
+      <c r="G13" s="197"/>
       <c r="H13" s="72" t="b">
         <f t="shared" ref="H13" ca="1" si="115">IF($F12,VLOOKUP($E12,DataPossibleActions,H$4,FALSE), FALSE)</f>
         <v>0</v>
@@ -37880,22 +37997,22 @@
       </c>
     </row>
     <row r="14" spans="1:66">
-      <c r="A14" s="216"/>
-      <c r="B14" s="198"/>
-      <c r="C14" s="193" t="str">
+      <c r="A14" s="206"/>
+      <c r="B14" s="216"/>
+      <c r="C14" s="208" t="str">
         <f t="shared" ref="C14" ca="1" si="118">IFERROR(INDEX(AssetName,(ROW()-$C$3)/2),"")</f>
         <v/>
       </c>
-      <c r="D14" s="194"/>
-      <c r="E14" s="214" t="e">
+      <c r="D14" s="209"/>
+      <c r="E14" s="196" t="e">
         <f t="shared" ref="E14" ca="1" si="119">VLOOKUP($C14,RawDataTable,E$4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F14" s="214" t="b">
+      <c r="F14" s="196" t="b">
         <f t="shared" ref="F14" ca="1" si="120">IF(ISNA(E14),FALSE,E14&lt;&gt;0)</f>
         <v>0</v>
       </c>
-      <c r="G14" s="214" t="b">
+      <c r="G14" s="196" t="b">
         <f t="shared" ref="G14" ca="1" si="121">IFERROR(NOT(VLOOKUP($C14,RawDataTable,G$4,FALSE)),TRUE)</f>
         <v>1</v>
       </c>
@@ -37985,13 +38102,13 @@
       </c>
     </row>
     <row r="15" spans="1:66">
-      <c r="A15" s="216"/>
-      <c r="B15" s="198"/>
-      <c r="C15" s="195"/>
-      <c r="D15" s="196"/>
-      <c r="E15" s="215"/>
-      <c r="F15" s="215"/>
-      <c r="G15" s="215"/>
+      <c r="A15" s="206"/>
+      <c r="B15" s="216"/>
+      <c r="C15" s="210"/>
+      <c r="D15" s="211"/>
+      <c r="E15" s="197"/>
+      <c r="F15" s="197"/>
+      <c r="G15" s="197"/>
       <c r="H15" s="72" t="b">
         <f t="shared" ref="H15" ca="1" si="123">IF($F14,VLOOKUP($E14,DataPossibleActions,H$4,FALSE), FALSE)</f>
         <v>0</v>
@@ -38078,22 +38195,22 @@
       </c>
     </row>
     <row r="16" spans="1:66">
-      <c r="A16" s="216"/>
-      <c r="B16" s="198"/>
-      <c r="C16" s="193" t="str">
+      <c r="A16" s="206"/>
+      <c r="B16" s="216"/>
+      <c r="C16" s="208" t="str">
         <f t="shared" ref="C16" ca="1" si="126">IFERROR(INDEX(AssetName,(ROW()-$C$3)/2),"")</f>
         <v/>
       </c>
-      <c r="D16" s="194"/>
-      <c r="E16" s="214" t="e">
+      <c r="D16" s="209"/>
+      <c r="E16" s="196" t="e">
         <f t="shared" ref="E16" ca="1" si="127">VLOOKUP($C16,RawDataTable,E$4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F16" s="214" t="b">
+      <c r="F16" s="196" t="b">
         <f t="shared" ref="F16" ca="1" si="128">IF(ISNA(E16),FALSE,E16&lt;&gt;0)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="214" t="b">
+      <c r="G16" s="196" t="b">
         <f t="shared" ref="G16" ca="1" si="129">IFERROR(NOT(VLOOKUP($C16,RawDataTable,G$4,FALSE)),TRUE)</f>
         <v>1</v>
       </c>
@@ -38183,13 +38300,13 @@
       </c>
     </row>
     <row r="17" spans="1:64">
-      <c r="A17" s="216"/>
-      <c r="B17" s="198"/>
-      <c r="C17" s="195"/>
-      <c r="D17" s="196"/>
-      <c r="E17" s="215"/>
-      <c r="F17" s="215"/>
-      <c r="G17" s="215"/>
+      <c r="A17" s="206"/>
+      <c r="B17" s="216"/>
+      <c r="C17" s="210"/>
+      <c r="D17" s="211"/>
+      <c r="E17" s="197"/>
+      <c r="F17" s="197"/>
+      <c r="G17" s="197"/>
       <c r="H17" s="72" t="b">
         <f t="shared" ref="H17" ca="1" si="131">IF($F16,VLOOKUP($E16,DataPossibleActions,H$4,FALSE), FALSE)</f>
         <v>0</v>
@@ -38276,22 +38393,22 @@
       </c>
     </row>
     <row r="18" spans="1:64">
-      <c r="A18" s="216"/>
-      <c r="B18" s="198"/>
-      <c r="C18" s="193" t="str">
+      <c r="A18" s="206"/>
+      <c r="B18" s="216"/>
+      <c r="C18" s="208" t="str">
         <f t="shared" ref="C18" ca="1" si="134">IFERROR(INDEX(AssetName,(ROW()-$C$3)/2),"")</f>
         <v/>
       </c>
-      <c r="D18" s="194"/>
-      <c r="E18" s="214" t="e">
+      <c r="D18" s="209"/>
+      <c r="E18" s="196" t="e">
         <f t="shared" ref="E18" ca="1" si="135">VLOOKUP($C18,RawDataTable,E$4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F18" s="214" t="b">
+      <c r="F18" s="196" t="b">
         <f t="shared" ref="F18" ca="1" si="136">IF(ISNA(E18),FALSE,E18&lt;&gt;0)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="214" t="b">
+      <c r="G18" s="196" t="b">
         <f t="shared" ref="G18" ca="1" si="137">IFERROR(NOT(VLOOKUP($C18,RawDataTable,G$4,FALSE)),TRUE)</f>
         <v>1</v>
       </c>
@@ -38381,13 +38498,13 @@
       </c>
     </row>
     <row r="19" spans="1:64">
-      <c r="A19" s="216"/>
-      <c r="B19" s="198"/>
-      <c r="C19" s="195"/>
-      <c r="D19" s="196"/>
-      <c r="E19" s="215"/>
-      <c r="F19" s="215"/>
-      <c r="G19" s="215"/>
+      <c r="A19" s="206"/>
+      <c r="B19" s="216"/>
+      <c r="C19" s="210"/>
+      <c r="D19" s="211"/>
+      <c r="E19" s="197"/>
+      <c r="F19" s="197"/>
+      <c r="G19" s="197"/>
       <c r="H19" s="72" t="b">
         <f t="shared" ref="H19" ca="1" si="139">IF($F18,VLOOKUP($E18,DataPossibleActions,H$4,FALSE), FALSE)</f>
         <v>0</v>
@@ -38474,22 +38591,22 @@
       </c>
     </row>
     <row r="20" spans="1:64">
-      <c r="A20" s="216"/>
-      <c r="B20" s="198"/>
-      <c r="C20" s="193" t="str">
+      <c r="A20" s="206"/>
+      <c r="B20" s="216"/>
+      <c r="C20" s="208" t="str">
         <f t="shared" ref="C20" ca="1" si="142">IFERROR(INDEX(AssetName,(ROW()-$C$3)/2),"")</f>
         <v/>
       </c>
-      <c r="D20" s="194"/>
-      <c r="E20" s="214" t="e">
+      <c r="D20" s="209"/>
+      <c r="E20" s="196" t="e">
         <f t="shared" ref="E20" ca="1" si="143">VLOOKUP($C20,RawDataTable,E$4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F20" s="214" t="b">
+      <c r="F20" s="196" t="b">
         <f t="shared" ref="F20" ca="1" si="144">IF(ISNA(E20),FALSE,E20&lt;&gt;0)</f>
         <v>0</v>
       </c>
-      <c r="G20" s="214" t="b">
+      <c r="G20" s="196" t="b">
         <f t="shared" ref="G20" ca="1" si="145">IFERROR(NOT(VLOOKUP($C20,RawDataTable,G$4,FALSE)),TRUE)</f>
         <v>1</v>
       </c>
@@ -38579,13 +38696,13 @@
       </c>
     </row>
     <row r="21" spans="1:64">
-      <c r="A21" s="216"/>
-      <c r="B21" s="198"/>
-      <c r="C21" s="195"/>
-      <c r="D21" s="196"/>
-      <c r="E21" s="215"/>
-      <c r="F21" s="215"/>
-      <c r="G21" s="215"/>
+      <c r="A21" s="206"/>
+      <c r="B21" s="216"/>
+      <c r="C21" s="210"/>
+      <c r="D21" s="211"/>
+      <c r="E21" s="197"/>
+      <c r="F21" s="197"/>
+      <c r="G21" s="197"/>
       <c r="H21" s="72" t="b">
         <f t="shared" ref="H21" ca="1" si="147">IF($F20,VLOOKUP($E20,DataPossibleActions,H$4,FALSE), FALSE)</f>
         <v>0</v>
@@ -38672,22 +38789,22 @@
       </c>
     </row>
     <row r="22" spans="1:64">
-      <c r="A22" s="216"/>
-      <c r="B22" s="198"/>
-      <c r="C22" s="193" t="str">
+      <c r="A22" s="206"/>
+      <c r="B22" s="216"/>
+      <c r="C22" s="208" t="str">
         <f t="shared" ref="C22" ca="1" si="150">IFERROR(INDEX(AssetName,(ROW()-$C$3)/2),"")</f>
         <v/>
       </c>
-      <c r="D22" s="194"/>
-      <c r="E22" s="214" t="e">
+      <c r="D22" s="209"/>
+      <c r="E22" s="196" t="e">
         <f t="shared" ref="E22" ca="1" si="151">VLOOKUP($C22,RawDataTable,E$4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F22" s="214" t="b">
+      <c r="F22" s="196" t="b">
         <f t="shared" ref="F22" ca="1" si="152">IF(ISNA(E22),FALSE,E22&lt;&gt;0)</f>
         <v>0</v>
       </c>
-      <c r="G22" s="214" t="b">
+      <c r="G22" s="196" t="b">
         <f t="shared" ref="G22" ca="1" si="153">IFERROR(NOT(VLOOKUP($C22,RawDataTable,G$4,FALSE)),TRUE)</f>
         <v>1</v>
       </c>
@@ -38777,13 +38894,13 @@
       </c>
     </row>
     <row r="23" spans="1:64">
-      <c r="A23" s="216"/>
-      <c r="B23" s="198"/>
-      <c r="C23" s="195"/>
-      <c r="D23" s="196"/>
-      <c r="E23" s="215"/>
-      <c r="F23" s="215"/>
-      <c r="G23" s="215"/>
+      <c r="A23" s="206"/>
+      <c r="B23" s="216"/>
+      <c r="C23" s="210"/>
+      <c r="D23" s="211"/>
+      <c r="E23" s="197"/>
+      <c r="F23" s="197"/>
+      <c r="G23" s="197"/>
       <c r="H23" s="72" t="b">
         <f t="shared" ref="H23" ca="1" si="155">IF($F22,VLOOKUP($E22,DataPossibleActions,H$4,FALSE), FALSE)</f>
         <v>0</v>
@@ -38870,22 +38987,22 @@
       </c>
     </row>
     <row r="24" spans="1:64">
-      <c r="A24" s="216"/>
-      <c r="B24" s="198"/>
-      <c r="C24" s="193" t="str">
+      <c r="A24" s="206"/>
+      <c r="B24" s="216"/>
+      <c r="C24" s="208" t="str">
         <f t="shared" ref="C24" ca="1" si="158">IFERROR(INDEX(AssetName,(ROW()-$C$3)/2),"")</f>
         <v/>
       </c>
-      <c r="D24" s="194"/>
-      <c r="E24" s="214" t="e">
+      <c r="D24" s="209"/>
+      <c r="E24" s="196" t="e">
         <f t="shared" ref="E24" ca="1" si="159">VLOOKUP($C24,RawDataTable,E$4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F24" s="214" t="b">
+      <c r="F24" s="196" t="b">
         <f t="shared" ref="F24" ca="1" si="160">IF(ISNA(E24),FALSE,E24&lt;&gt;0)</f>
         <v>0</v>
       </c>
-      <c r="G24" s="214" t="b">
+      <c r="G24" s="196" t="b">
         <f t="shared" ref="G24" ca="1" si="161">IFERROR(NOT(VLOOKUP($C24,RawDataTable,G$4,FALSE)),TRUE)</f>
         <v>1</v>
       </c>
@@ -38975,13 +39092,13 @@
       </c>
     </row>
     <row r="25" spans="1:64">
-      <c r="A25" s="216"/>
-      <c r="B25" s="198"/>
-      <c r="C25" s="195"/>
-      <c r="D25" s="196"/>
-      <c r="E25" s="215"/>
-      <c r="F25" s="215"/>
-      <c r="G25" s="215"/>
+      <c r="A25" s="206"/>
+      <c r="B25" s="216"/>
+      <c r="C25" s="210"/>
+      <c r="D25" s="211"/>
+      <c r="E25" s="197"/>
+      <c r="F25" s="197"/>
+      <c r="G25" s="197"/>
       <c r="H25" s="72" t="b">
         <f t="shared" ref="H25" ca="1" si="163">IF($F24,VLOOKUP($E24,DataPossibleActions,H$4,FALSE), FALSE)</f>
         <v>0</v>
@@ -39068,22 +39185,22 @@
       </c>
     </row>
     <row r="26" spans="1:64">
-      <c r="A26" s="216"/>
-      <c r="B26" s="198"/>
-      <c r="C26" s="193" t="str">
+      <c r="A26" s="206"/>
+      <c r="B26" s="216"/>
+      <c r="C26" s="208" t="str">
         <f t="shared" ref="C26" ca="1" si="166">IFERROR(INDEX(AssetName,(ROW()-$C$3)/2),"")</f>
         <v/>
       </c>
-      <c r="D26" s="194"/>
-      <c r="E26" s="214" t="e">
+      <c r="D26" s="209"/>
+      <c r="E26" s="196" t="e">
         <f t="shared" ref="E26" ca="1" si="167">VLOOKUP($C26,RawDataTable,E$4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F26" s="214" t="b">
+      <c r="F26" s="196" t="b">
         <f t="shared" ref="F26" ca="1" si="168">IF(ISNA(E26),FALSE,E26&lt;&gt;0)</f>
         <v>0</v>
       </c>
-      <c r="G26" s="214" t="b">
+      <c r="G26" s="196" t="b">
         <f t="shared" ref="G26" ca="1" si="169">IFERROR(NOT(VLOOKUP($C26,RawDataTable,G$4,FALSE)),TRUE)</f>
         <v>1</v>
       </c>
@@ -39173,13 +39290,13 @@
       </c>
     </row>
     <row r="27" spans="1:64">
-      <c r="A27" s="216"/>
-      <c r="B27" s="198"/>
-      <c r="C27" s="195"/>
-      <c r="D27" s="196"/>
-      <c r="E27" s="215"/>
-      <c r="F27" s="215"/>
-      <c r="G27" s="215"/>
+      <c r="A27" s="206"/>
+      <c r="B27" s="216"/>
+      <c r="C27" s="210"/>
+      <c r="D27" s="211"/>
+      <c r="E27" s="197"/>
+      <c r="F27" s="197"/>
+      <c r="G27" s="197"/>
       <c r="H27" s="72" t="b">
         <f t="shared" ref="H27" ca="1" si="171">IF($F26,VLOOKUP($E26,DataPossibleActions,H$4,FALSE), FALSE)</f>
         <v>0</v>
@@ -39266,22 +39383,22 @@
       </c>
     </row>
     <row r="28" spans="1:64">
-      <c r="A28" s="216"/>
-      <c r="B28" s="198"/>
-      <c r="C28" s="193" t="str">
+      <c r="A28" s="206"/>
+      <c r="B28" s="216"/>
+      <c r="C28" s="208" t="str">
         <f t="shared" ref="C28" ca="1" si="174">IFERROR(INDEX(AssetName,(ROW()-$C$3)/2),"")</f>
         <v/>
       </c>
-      <c r="D28" s="194"/>
-      <c r="E28" s="214" t="e">
+      <c r="D28" s="209"/>
+      <c r="E28" s="196" t="e">
         <f t="shared" ref="E28" ca="1" si="175">VLOOKUP($C28,RawDataTable,E$4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F28" s="214" t="b">
+      <c r="F28" s="196" t="b">
         <f t="shared" ref="F28" ca="1" si="176">IF(ISNA(E28),FALSE,E28&lt;&gt;0)</f>
         <v>0</v>
       </c>
-      <c r="G28" s="214" t="b">
+      <c r="G28" s="196" t="b">
         <f t="shared" ref="G28" ca="1" si="177">IFERROR(NOT(VLOOKUP($C28,RawDataTable,G$4,FALSE)),TRUE)</f>
         <v>1</v>
       </c>
@@ -39371,13 +39488,13 @@
       </c>
     </row>
     <row r="29" spans="1:64">
-      <c r="A29" s="216"/>
-      <c r="B29" s="198"/>
-      <c r="C29" s="195"/>
-      <c r="D29" s="196"/>
-      <c r="E29" s="215"/>
-      <c r="F29" s="215"/>
-      <c r="G29" s="215"/>
+      <c r="A29" s="206"/>
+      <c r="B29" s="216"/>
+      <c r="C29" s="210"/>
+      <c r="D29" s="211"/>
+      <c r="E29" s="197"/>
+      <c r="F29" s="197"/>
+      <c r="G29" s="197"/>
       <c r="H29" s="72" t="b">
         <f t="shared" ref="H29" ca="1" si="179">IF($F28,VLOOKUP($E28,DataPossibleActions,H$4,FALSE), FALSE)</f>
         <v>0</v>
@@ -39464,22 +39581,22 @@
       </c>
     </row>
     <row r="30" spans="1:64">
-      <c r="A30" s="216"/>
-      <c r="B30" s="198"/>
-      <c r="C30" s="193" t="str">
+      <c r="A30" s="206"/>
+      <c r="B30" s="216"/>
+      <c r="C30" s="208" t="str">
         <f t="shared" ref="C30" ca="1" si="182">IFERROR(INDEX(AssetName,(ROW()-$C$3)/2),"")</f>
         <v/>
       </c>
-      <c r="D30" s="194"/>
-      <c r="E30" s="214" t="e">
+      <c r="D30" s="209"/>
+      <c r="E30" s="196" t="e">
         <f t="shared" ref="E30" ca="1" si="183">VLOOKUP($C30,RawDataTable,E$4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F30" s="214" t="b">
+      <c r="F30" s="196" t="b">
         <f t="shared" ref="F30" ca="1" si="184">IF(ISNA(E30),FALSE,E30&lt;&gt;0)</f>
         <v>0</v>
       </c>
-      <c r="G30" s="214" t="b">
+      <c r="G30" s="196" t="b">
         <f t="shared" ref="G30" ca="1" si="185">IFERROR(NOT(VLOOKUP($C30,RawDataTable,G$4,FALSE)),TRUE)</f>
         <v>1</v>
       </c>
@@ -39569,13 +39686,13 @@
       </c>
     </row>
     <row r="31" spans="1:64">
-      <c r="A31" s="216"/>
-      <c r="B31" s="198"/>
-      <c r="C31" s="195"/>
-      <c r="D31" s="196"/>
-      <c r="E31" s="215"/>
-      <c r="F31" s="215"/>
-      <c r="G31" s="215"/>
+      <c r="A31" s="206"/>
+      <c r="B31" s="216"/>
+      <c r="C31" s="210"/>
+      <c r="D31" s="211"/>
+      <c r="E31" s="197"/>
+      <c r="F31" s="197"/>
+      <c r="G31" s="197"/>
       <c r="H31" s="72" t="b">
         <f t="shared" ref="H31" ca="1" si="187">IF($F30,VLOOKUP($E30,DataPossibleActions,H$4,FALSE), FALSE)</f>
         <v>0</v>
@@ -39662,22 +39779,22 @@
       </c>
     </row>
     <row r="32" spans="1:64">
-      <c r="A32" s="216"/>
-      <c r="B32" s="198"/>
-      <c r="C32" s="193" t="str">
+      <c r="A32" s="206"/>
+      <c r="B32" s="216"/>
+      <c r="C32" s="208" t="str">
         <f t="shared" ref="C32" ca="1" si="190">IFERROR(INDEX(AssetName,(ROW()-$C$3)/2),"")</f>
         <v/>
       </c>
-      <c r="D32" s="194"/>
-      <c r="E32" s="214" t="e">
+      <c r="D32" s="209"/>
+      <c r="E32" s="196" t="e">
         <f t="shared" ref="E32" ca="1" si="191">VLOOKUP($C32,RawDataTable,E$4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F32" s="214" t="b">
+      <c r="F32" s="196" t="b">
         <f t="shared" ref="F32" ca="1" si="192">IF(ISNA(E32),FALSE,E32&lt;&gt;0)</f>
         <v>0</v>
       </c>
-      <c r="G32" s="214" t="b">
+      <c r="G32" s="196" t="b">
         <f t="shared" ref="G32" ca="1" si="193">IFERROR(NOT(VLOOKUP($C32,RawDataTable,G$4,FALSE)),TRUE)</f>
         <v>1</v>
       </c>
@@ -39767,13 +39884,13 @@
       </c>
     </row>
     <row r="33" spans="1:64">
-      <c r="A33" s="216"/>
-      <c r="B33" s="198"/>
-      <c r="C33" s="195"/>
-      <c r="D33" s="196"/>
-      <c r="E33" s="215"/>
-      <c r="F33" s="215"/>
-      <c r="G33" s="215"/>
+      <c r="A33" s="206"/>
+      <c r="B33" s="216"/>
+      <c r="C33" s="210"/>
+      <c r="D33" s="211"/>
+      <c r="E33" s="197"/>
+      <c r="F33" s="197"/>
+      <c r="G33" s="197"/>
       <c r="H33" s="72" t="b">
         <f t="shared" ref="H33" ca="1" si="195">IF($F32,VLOOKUP($E32,DataPossibleActions,H$4,FALSE), FALSE)</f>
         <v>0</v>
@@ -39860,22 +39977,22 @@
       </c>
     </row>
     <row r="34" spans="1:64">
-      <c r="A34" s="216"/>
-      <c r="B34" s="198"/>
-      <c r="C34" s="193" t="str">
+      <c r="A34" s="206"/>
+      <c r="B34" s="216"/>
+      <c r="C34" s="208" t="str">
         <f t="shared" ref="C34" ca="1" si="198">IFERROR(INDEX(AssetName,(ROW()-$C$3)/2),"")</f>
         <v/>
       </c>
-      <c r="D34" s="194"/>
-      <c r="E34" s="214" t="e">
+      <c r="D34" s="209"/>
+      <c r="E34" s="196" t="e">
         <f t="shared" ref="E34" ca="1" si="199">VLOOKUP($C34,RawDataTable,E$4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F34" s="214" t="b">
+      <c r="F34" s="196" t="b">
         <f t="shared" ref="F34" ca="1" si="200">IF(ISNA(E34),FALSE,E34&lt;&gt;0)</f>
         <v>0</v>
       </c>
-      <c r="G34" s="214" t="b">
+      <c r="G34" s="196" t="b">
         <f t="shared" ref="G34" ca="1" si="201">IFERROR(NOT(VLOOKUP($C34,RawDataTable,G$4,FALSE)),TRUE)</f>
         <v>1</v>
       </c>
@@ -39965,13 +40082,13 @@
       </c>
     </row>
     <row r="35" spans="1:64">
-      <c r="A35" s="216"/>
-      <c r="B35" s="198"/>
-      <c r="C35" s="195"/>
-      <c r="D35" s="196"/>
-      <c r="E35" s="215"/>
-      <c r="F35" s="215"/>
-      <c r="G35" s="215"/>
+      <c r="A35" s="206"/>
+      <c r="B35" s="216"/>
+      <c r="C35" s="210"/>
+      <c r="D35" s="211"/>
+      <c r="E35" s="197"/>
+      <c r="F35" s="197"/>
+      <c r="G35" s="197"/>
       <c r="H35" s="72" t="b">
         <f t="shared" ref="H35" ca="1" si="203">IF($F34,VLOOKUP($E34,DataPossibleActions,H$4,FALSE), FALSE)</f>
         <v>0</v>
@@ -40058,22 +40175,22 @@
       </c>
     </row>
     <row r="36" spans="1:64">
-      <c r="A36" s="216"/>
-      <c r="B36" s="198"/>
-      <c r="C36" s="193" t="str">
+      <c r="A36" s="206"/>
+      <c r="B36" s="216"/>
+      <c r="C36" s="208" t="str">
         <f t="shared" ref="C36" ca="1" si="206">IFERROR(INDEX(AssetName,(ROW()-$C$3)/2),"")</f>
         <v/>
       </c>
-      <c r="D36" s="194"/>
-      <c r="E36" s="214" t="e">
+      <c r="D36" s="209"/>
+      <c r="E36" s="196" t="e">
         <f t="shared" ref="E36" ca="1" si="207">VLOOKUP($C36,RawDataTable,E$4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F36" s="214" t="b">
+      <c r="F36" s="196" t="b">
         <f t="shared" ref="F36" ca="1" si="208">IF(ISNA(E36),FALSE,E36&lt;&gt;0)</f>
         <v>0</v>
       </c>
-      <c r="G36" s="214" t="b">
+      <c r="G36" s="196" t="b">
         <f t="shared" ref="G36" ca="1" si="209">IFERROR(NOT(VLOOKUP($C36,RawDataTable,G$4,FALSE)),TRUE)</f>
         <v>1</v>
       </c>
@@ -40163,13 +40280,13 @@
       </c>
     </row>
     <row r="37" spans="1:64">
-      <c r="A37" s="216"/>
-      <c r="B37" s="198"/>
-      <c r="C37" s="195"/>
-      <c r="D37" s="196"/>
-      <c r="E37" s="215"/>
-      <c r="F37" s="215"/>
-      <c r="G37" s="215"/>
+      <c r="A37" s="206"/>
+      <c r="B37" s="216"/>
+      <c r="C37" s="210"/>
+      <c r="D37" s="211"/>
+      <c r="E37" s="197"/>
+      <c r="F37" s="197"/>
+      <c r="G37" s="197"/>
       <c r="H37" s="72" t="b">
         <f t="shared" ref="H37" ca="1" si="211">IF($F36,VLOOKUP($E36,DataPossibleActions,H$4,FALSE), FALSE)</f>
         <v>0</v>
@@ -40256,22 +40373,22 @@
       </c>
     </row>
     <row r="38" spans="1:64">
-      <c r="A38" s="216"/>
-      <c r="B38" s="198"/>
-      <c r="C38" s="193" t="str">
+      <c r="A38" s="206"/>
+      <c r="B38" s="216"/>
+      <c r="C38" s="208" t="str">
         <f t="shared" ref="C38" ca="1" si="214">IFERROR(INDEX(AssetName,(ROW()-$C$3)/2),"")</f>
         <v/>
       </c>
-      <c r="D38" s="194"/>
-      <c r="E38" s="214" t="e">
+      <c r="D38" s="209"/>
+      <c r="E38" s="196" t="e">
         <f t="shared" ref="E38" ca="1" si="215">VLOOKUP($C38,RawDataTable,E$4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F38" s="214" t="b">
+      <c r="F38" s="196" t="b">
         <f t="shared" ref="F38" ca="1" si="216">IF(ISNA(E38),FALSE,E38&lt;&gt;0)</f>
         <v>0</v>
       </c>
-      <c r="G38" s="214" t="b">
+      <c r="G38" s="196" t="b">
         <f t="shared" ref="G38" ca="1" si="217">IFERROR(NOT(VLOOKUP($C38,RawDataTable,G$4,FALSE)),TRUE)</f>
         <v>1</v>
       </c>
@@ -40361,13 +40478,13 @@
       </c>
     </row>
     <row r="39" spans="1:64">
-      <c r="A39" s="217"/>
-      <c r="B39" s="199"/>
-      <c r="C39" s="195"/>
-      <c r="D39" s="196"/>
-      <c r="E39" s="215"/>
-      <c r="F39" s="215"/>
-      <c r="G39" s="215"/>
+      <c r="A39" s="207"/>
+      <c r="B39" s="217"/>
+      <c r="C39" s="210"/>
+      <c r="D39" s="211"/>
+      <c r="E39" s="197"/>
+      <c r="F39" s="197"/>
+      <c r="G39" s="197"/>
       <c r="H39" s="72" t="b">
         <f t="shared" ref="H39" ca="1" si="219">IF($F38,VLOOKUP($E38,DataPossibleActions,H$4,FALSE), FALSE)</f>
         <v>0</v>
@@ -40455,6 +40572,83 @@
     </row>
   </sheetData>
   <mergeCells count="93">
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="B8:B39"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="K6:BF6"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="W7:Y7"/>
+    <mergeCell ref="Z7:AB7"/>
+    <mergeCell ref="AC7:AE7"/>
+    <mergeCell ref="AF7:AH7"/>
+    <mergeCell ref="AI7:AK7"/>
+    <mergeCell ref="AL7:AN7"/>
+    <mergeCell ref="AO7:AQ7"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="A1:A7"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="A8:A39"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="G34:G35"/>
     <mergeCell ref="BG6:BL6"/>
     <mergeCell ref="BG5:BL5"/>
     <mergeCell ref="BJ7:BL7"/>
@@ -40471,120 +40665,43 @@
     <mergeCell ref="AR7:AT7"/>
     <mergeCell ref="AU7:AW7"/>
     <mergeCell ref="AX7:AZ7"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="A1:A7"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="A8:A39"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="K6:BF6"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="W7:Y7"/>
-    <mergeCell ref="Z7:AB7"/>
-    <mergeCell ref="AC7:AE7"/>
-    <mergeCell ref="AF7:AH7"/>
-    <mergeCell ref="AI7:AK7"/>
-    <mergeCell ref="AL7:AN7"/>
-    <mergeCell ref="AO7:AQ7"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="B8:B39"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="C38:D39"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="C12:D13"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="K8:K39 N8:N39 Q8:Q39 T8:T39 W8:W39 Z8:Z39 AC8:AC39 AF8:AF39 AI8:AI39 AL8:AL39 AO8:AO39 AR8:AR39 AU8:AU39 AX8:AX39 BA8:BA39 BD8:BD39">
-    <cfRule type="expression" dxfId="96" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="0" stopIfTrue="1">
       <formula>OR(NOT(K$1),NOT($H8))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="1" stopIfTrue="1">
       <formula>AND(K$1,$H8,K8="Always")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="2" stopIfTrue="1">
       <formula>AND(K$1,$H8,K8="Conditionally")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:M39 P8:P39 S8:S39 V8:V39 Y8:Y39 AB8:AB39 AE8:AE39 AH8:AH39 AK8:AK39 AN8:AN39 AQ8:AQ39 AT8:AT39 AW8:AW39 AZ8:AZ39 BC8:BC39 BF8:BF39">
-    <cfRule type="expression" dxfId="93" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="3" stopIfTrue="1">
       <formula>OR(NOT(M$1),NOT($J8))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="4" stopIfTrue="1">
       <formula>AND(M$1,$J8,M8="Always")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="5" stopIfTrue="1">
       <formula>AND(M$1,$J8,M8="Conditionally")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L39 O8:O39 R8:R39 U8:U39 X8:X39 AA8:AA39 AD8:AD39 AG8:AG39 AJ8:AJ39 AM8:AM39 AP8:AP39 AS8:AS39 AV8:AV39 AY8:AY39 BB8:BB39 BE8:BE39">
-    <cfRule type="expression" dxfId="90" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="6" stopIfTrue="1">
       <formula>OR(NOT(L$1),NOT($I8))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="7" stopIfTrue="1">
       <formula>AND(L$1,$I8,L8="Always")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="8" stopIfTrue="1">
       <formula>AND(L$1,$I8,L8="Conditionally")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:D39 K7:BF7">
-    <cfRule type="expression" dxfId="87" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="9" stopIfTrue="1">
       <formula>C7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40596,7 +40713,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -40604,7 +40721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP38"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
@@ -40612,10 +40729,10 @@
       <selection activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="B3" sqref="B3"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14.140625" customWidth="1"/>
     <col min="2" max="2" width="29.42578125" customWidth="1"/>
@@ -40703,68 +40820,68 @@
       <c r="AP1" s="22"/>
     </row>
     <row r="2" spans="1:42" ht="14" hidden="1" customHeight="1">
-      <c r="A2" s="163" t="s">
+      <c r="A2" s="170" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164"/>
-      <c r="I2" s="164"/>
-      <c r="J2" s="164"/>
-      <c r="K2" s="164"/>
-      <c r="L2" s="164"/>
-      <c r="M2" s="165"/>
-      <c r="N2" s="163" t="s">
+      <c r="B2" s="173"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="173"/>
+      <c r="I2" s="173"/>
+      <c r="J2" s="173"/>
+      <c r="K2" s="173"/>
+      <c r="L2" s="173"/>
+      <c r="M2" s="174"/>
+      <c r="N2" s="170" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="181"/>
-      <c r="P2" s="181"/>
-      <c r="Q2" s="181"/>
+      <c r="O2" s="164"/>
+      <c r="P2" s="164"/>
+      <c r="Q2" s="164"/>
       <c r="R2" s="192"/>
-      <c r="T2" s="163" t="s">
+      <c r="T2" s="170" t="s">
         <v>62</v>
       </c>
-      <c r="U2" s="185"/>
-      <c r="V2" s="185"/>
-      <c r="W2" s="185"/>
-      <c r="X2" s="185"/>
-      <c r="Y2" s="185"/>
-      <c r="AA2" s="163" t="s">
+      <c r="U2" s="168"/>
+      <c r="V2" s="168"/>
+      <c r="W2" s="168"/>
+      <c r="X2" s="168"/>
+      <c r="Y2" s="168"/>
+      <c r="AA2" s="170" t="s">
         <v>107</v>
       </c>
-      <c r="AB2" s="185"/>
-      <c r="AC2" s="185"/>
-      <c r="AD2" s="185"/>
-      <c r="AE2" s="163" t="s">
+      <c r="AB2" s="168"/>
+      <c r="AC2" s="168"/>
+      <c r="AD2" s="168"/>
+      <c r="AE2" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="AF2" s="181"/>
-      <c r="AG2" s="181"/>
-      <c r="AH2" s="181"/>
-      <c r="AI2" s="181"/>
-      <c r="AJ2" s="181"/>
-      <c r="AK2" s="181"/>
-      <c r="AL2" s="181"/>
-      <c r="AM2" s="181"/>
-      <c r="AN2" s="181"/>
-      <c r="AO2" s="181"/>
+      <c r="AF2" s="164"/>
+      <c r="AG2" s="164"/>
+      <c r="AH2" s="164"/>
+      <c r="AI2" s="164"/>
+      <c r="AJ2" s="164"/>
+      <c r="AK2" s="164"/>
+      <c r="AL2" s="164"/>
+      <c r="AM2" s="164"/>
+      <c r="AN2" s="164"/>
+      <c r="AO2" s="164"/>
       <c r="AP2" s="192"/>
     </row>
     <row r="3" spans="1:42" ht="16">
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
-      <c r="D3" s="166" t="s">
+      <c r="D3" s="175" t="s">
         <v>300</v>
       </c>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
+      <c r="E3" s="176"/>
+      <c r="F3" s="176"/>
+      <c r="G3" s="176"/>
+      <c r="H3" s="176"/>
       <c r="I3" s="42"/>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
@@ -40791,30 +40908,30 @@
       </c>
       <c r="X3" s="24"/>
       <c r="Y3" s="24"/>
-      <c r="AA3" s="187" t="s">
+      <c r="AA3" s="171" t="s">
         <v>165</v>
       </c>
-      <c r="AB3" s="188"/>
-      <c r="AC3" s="187" t="s">
+      <c r="AB3" s="172"/>
+      <c r="AC3" s="171" t="s">
         <v>166</v>
       </c>
       <c r="AD3" s="218"/>
-      <c r="AE3" s="180" t="s">
+      <c r="AE3" s="163" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="181"/>
-      <c r="AG3" s="181"/>
-      <c r="AH3" s="181"/>
-      <c r="AI3" s="181"/>
-      <c r="AJ3" s="182"/>
-      <c r="AK3" s="180" t="s">
+      <c r="AF3" s="164"/>
+      <c r="AG3" s="164"/>
+      <c r="AH3" s="164"/>
+      <c r="AI3" s="164"/>
+      <c r="AJ3" s="165"/>
+      <c r="AK3" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="AL3" s="181"/>
-      <c r="AM3" s="181"/>
-      <c r="AN3" s="181"/>
-      <c r="AO3" s="181"/>
-      <c r="AP3" s="182"/>
+      <c r="AL3" s="164"/>
+      <c r="AM3" s="164"/>
+      <c r="AN3" s="164"/>
+      <c r="AO3" s="164"/>
+      <c r="AP3" s="165"/>
     </row>
     <row r="4" spans="1:42" ht="105" customHeight="1">
       <c r="A4" s="16" t="s">
@@ -40853,7 +40970,7 @@
         <v>109</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>110</v>
+        <v>373</v>
       </c>
       <c r="L4" s="14" t="s">
         <v>111</v>
@@ -45882,81 +45999,81 @@
   </sheetData>
   <autoFilter ref="A4:M4"/>
   <mergeCells count="11">
+    <mergeCell ref="AK3:AP3"/>
+    <mergeCell ref="AE3:AJ3"/>
+    <mergeCell ref="AE2:AP2"/>
+    <mergeCell ref="T2:Y2"/>
+    <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="D3:H3"/>
     <mergeCell ref="O3:Q3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="N2:R2"/>
-    <mergeCell ref="AK3:AP3"/>
-    <mergeCell ref="AE3:AJ3"/>
-    <mergeCell ref="AE2:AP2"/>
-    <mergeCell ref="T2:Y2"/>
-    <mergeCell ref="AA2:AD2"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="C5:C38">
-    <cfRule type="expression" dxfId="86" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="0" stopIfTrue="1">
       <formula>NOT($O5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="1" stopIfTrue="1">
       <formula>AND($O5,NOT(ISBLANK(C5)),NOT($R5))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="2" stopIfTrue="1">
       <formula>AND($O5,$R5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:H38">
-    <cfRule type="expression" dxfId="83" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="3" stopIfTrue="1">
       <formula>OR(NOT(D$1),NOT($O5))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="4" stopIfTrue="1">
       <formula>AND(D$1,$O5,NOT(ISBLANK(D5)),NOT(D5))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="5" stopIfTrue="1">
       <formula>AND(D$1,$O5,NOT(ISBLANK(D5)),D5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:M38">
-    <cfRule type="expression" dxfId="80" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="6" stopIfTrue="1">
       <formula>NOT($O5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="7" stopIfTrue="1">
       <formula>AND($O5, NOT(ISBLANK(K5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B38">
-    <cfRule type="expression" dxfId="78" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="8" stopIfTrue="1">
       <formula>AND($O5, $P5, NOT(ISBLANK(B5)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="9" stopIfTrue="1">
       <formula>AND($O5, NOT($P5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A38">
-    <cfRule type="expression" dxfId="76" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="10" stopIfTrue="1">
       <formula>AND($O5,NOT($AJ5),$P5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="11" stopIfTrue="1">
       <formula>$AJ5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="12" stopIfTrue="1">
       <formula>AND($O5,NOT($AJ5),NOT($P5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:J38">
-    <cfRule type="expression" dxfId="73" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="13" stopIfTrue="1">
       <formula>NOT($O5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="14" stopIfTrue="1">
       <formula>AND($O5,NOT(ISBLANK(I5)),NOT($AK5))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="15" stopIfTrue="1">
       <formula>AND($O5,NOT(ISBLANK(I5)),$AK5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:H4">
-    <cfRule type="expression" dxfId="70" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="16" stopIfTrue="1">
       <formula>D$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45980,7 +46097,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -45988,7 +46105,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
@@ -45997,7 +46114,7 @@
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="14.28515625" customWidth="1"/>
     <col min="3" max="3" width="44.7109375" customWidth="1"/>
@@ -46009,19 +46126,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="51" hidden="1" customHeight="1">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="170" t="s">
         <v>82</v>
       </c>
       <c r="B1" s="219"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="163" t="s">
+      <c r="C1" s="173"/>
+      <c r="D1" s="170" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="164"/>
-      <c r="G1" s="163" t="s">
+      <c r="E1" s="173"/>
+      <c r="G1" s="170" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="185"/>
+      <c r="H1" s="168"/>
     </row>
     <row r="2" spans="1:8" ht="16" customHeight="1">
       <c r="A2" s="16"/>
@@ -46031,10 +46148,10 @@
         <v>185</v>
       </c>
       <c r="E2" s="191"/>
-      <c r="G2" s="187" t="s">
+      <c r="G2" s="171" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="188"/>
+      <c r="H2" s="172"/>
     </row>
     <row r="3" spans="1:8" ht="80">
       <c r="A3" s="16" t="s">
@@ -47263,12 +47380,12 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="A4:A37">
-    <cfRule type="expression" dxfId="69" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="0" stopIfTrue="1">
       <formula>$D4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:C37">
-    <cfRule type="expression" dxfId="68" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="1" stopIfTrue="1">
       <formula>NOT(ISBLANK(B4))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -47280,7 +47397,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -47288,7 +47405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
@@ -47300,7 +47417,7 @@
       <selection pane="bottomLeft" activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="10.7109375" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="25.5703125" hidden="1" customWidth="1"/>
@@ -47499,15 +47616,15 @@
       <c r="AC3" s="22"/>
     </row>
     <row r="4" spans="1:29" ht="16" hidden="1" customHeight="1">
-      <c r="A4" s="175" t="s">
+      <c r="A4" s="184" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="175"/>
-      <c r="C4" s="175"/>
-      <c r="D4" s="175"/>
-      <c r="E4" s="175"/>
-      <c r="F4" s="175"/>
-      <c r="G4" s="175"/>
+      <c r="B4" s="184"/>
+      <c r="C4" s="184"/>
+      <c r="D4" s="184"/>
+      <c r="E4" s="184"/>
+      <c r="F4" s="184"/>
+      <c r="G4" s="184"/>
       <c r="H4" s="230"/>
       <c r="I4" s="230"/>
       <c r="J4" s="230"/>
@@ -47517,14 +47634,14 @@
       <c r="N4" s="230"/>
       <c r="O4" s="230"/>
       <c r="P4" s="231"/>
-      <c r="R4" s="177" t="s">
+      <c r="R4" s="186" t="s">
         <v>307</v>
       </c>
-      <c r="S4" s="178"/>
-      <c r="T4" s="178"/>
-      <c r="U4" s="178"/>
-      <c r="V4" s="179"/>
-      <c r="X4" s="183" t="s">
+      <c r="S4" s="187"/>
+      <c r="T4" s="187"/>
+      <c r="U4" s="187"/>
+      <c r="V4" s="188"/>
+      <c r="X4" s="166" t="s">
         <v>87</v>
       </c>
       <c r="Y4" s="226"/>
@@ -47552,14 +47669,14 @@
       <c r="J5" s="63" t="s">
         <v>125</v>
       </c>
-      <c r="K5" s="177" t="s">
+      <c r="K5" s="186" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="178"/>
-      <c r="M5" s="178"/>
-      <c r="N5" s="178"/>
-      <c r="O5" s="178"/>
-      <c r="P5" s="179"/>
+      <c r="L5" s="187"/>
+      <c r="M5" s="187"/>
+      <c r="N5" s="187"/>
+      <c r="O5" s="187"/>
+      <c r="P5" s="188"/>
       <c r="R5" s="24"/>
       <c r="S5" s="87" t="s">
         <v>207</v>
@@ -47609,16 +47726,16 @@
       <c r="J6" s="66" t="s">
         <v>181</v>
       </c>
-      <c r="K6" s="177" t="s">
+      <c r="K6" s="186" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="178"/>
-      <c r="M6" s="179"/>
-      <c r="N6" s="177" t="s">
+      <c r="L6" s="187"/>
+      <c r="M6" s="188"/>
+      <c r="N6" s="186" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="178"/>
-      <c r="P6" s="179"/>
+      <c r="O6" s="187"/>
+      <c r="P6" s="188"/>
       <c r="Q6" s="86" t="s">
         <v>48</v>
       </c>
@@ -47981,7 +48098,7 @@
       <c r="AB9" s="119"/>
       <c r="AC9" s="120"/>
     </row>
-    <row r="10" spans="1:29" ht="16">
+    <row r="10" spans="1:29" ht="32">
       <c r="A10" s="48">
         <f>ROW()</f>
         <v>10</v>
@@ -57314,8 +57431,54 @@
       <c r="AC106" s="123"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="61">
+    <mergeCell ref="I103:J104"/>
+    <mergeCell ref="I105:J106"/>
+    <mergeCell ref="I93:J94"/>
+    <mergeCell ref="I95:J96"/>
+    <mergeCell ref="I97:J98"/>
+    <mergeCell ref="I99:J100"/>
+    <mergeCell ref="I101:J102"/>
+    <mergeCell ref="I83:J84"/>
+    <mergeCell ref="I85:J86"/>
+    <mergeCell ref="I87:J88"/>
+    <mergeCell ref="I89:J90"/>
+    <mergeCell ref="I91:J92"/>
+    <mergeCell ref="I73:J74"/>
+    <mergeCell ref="I75:J76"/>
+    <mergeCell ref="I77:J78"/>
+    <mergeCell ref="I79:J80"/>
+    <mergeCell ref="I81:J82"/>
+    <mergeCell ref="I63:J64"/>
+    <mergeCell ref="I65:J66"/>
+    <mergeCell ref="I67:J68"/>
+    <mergeCell ref="I69:J70"/>
+    <mergeCell ref="I71:J72"/>
+    <mergeCell ref="I53:J54"/>
+    <mergeCell ref="I55:J56"/>
+    <mergeCell ref="I57:J58"/>
+    <mergeCell ref="I59:J60"/>
+    <mergeCell ref="I61:J62"/>
+    <mergeCell ref="I43:J44"/>
+    <mergeCell ref="I45:J46"/>
+    <mergeCell ref="I47:J48"/>
+    <mergeCell ref="I49:J50"/>
+    <mergeCell ref="I51:J52"/>
+    <mergeCell ref="I33:J34"/>
+    <mergeCell ref="I35:J36"/>
+    <mergeCell ref="I37:J38"/>
+    <mergeCell ref="I39:J40"/>
+    <mergeCell ref="I41:J42"/>
+    <mergeCell ref="I23:J24"/>
+    <mergeCell ref="I25:J26"/>
+    <mergeCell ref="I27:J28"/>
+    <mergeCell ref="I29:J30"/>
+    <mergeCell ref="I31:J32"/>
+    <mergeCell ref="I13:J14"/>
+    <mergeCell ref="I15:J16"/>
+    <mergeCell ref="I17:J18"/>
+    <mergeCell ref="I19:J20"/>
+    <mergeCell ref="I21:J22"/>
     <mergeCell ref="I7:J8"/>
     <mergeCell ref="I9:J10"/>
     <mergeCell ref="I11:J12"/>
@@ -57330,79 +57493,32 @@
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="N6:P6"/>
     <mergeCell ref="K5:P5"/>
-    <mergeCell ref="I13:J14"/>
-    <mergeCell ref="I15:J16"/>
-    <mergeCell ref="I17:J18"/>
-    <mergeCell ref="I19:J20"/>
-    <mergeCell ref="I21:J22"/>
-    <mergeCell ref="I23:J24"/>
-    <mergeCell ref="I25:J26"/>
-    <mergeCell ref="I27:J28"/>
-    <mergeCell ref="I29:J30"/>
-    <mergeCell ref="I31:J32"/>
-    <mergeCell ref="I33:J34"/>
-    <mergeCell ref="I35:J36"/>
-    <mergeCell ref="I37:J38"/>
-    <mergeCell ref="I39:J40"/>
-    <mergeCell ref="I41:J42"/>
-    <mergeCell ref="I43:J44"/>
-    <mergeCell ref="I45:J46"/>
-    <mergeCell ref="I47:J48"/>
-    <mergeCell ref="I49:J50"/>
-    <mergeCell ref="I51:J52"/>
-    <mergeCell ref="I53:J54"/>
-    <mergeCell ref="I55:J56"/>
-    <mergeCell ref="I57:J58"/>
-    <mergeCell ref="I59:J60"/>
-    <mergeCell ref="I61:J62"/>
-    <mergeCell ref="I63:J64"/>
-    <mergeCell ref="I65:J66"/>
-    <mergeCell ref="I67:J68"/>
-    <mergeCell ref="I69:J70"/>
-    <mergeCell ref="I71:J72"/>
-    <mergeCell ref="I73:J74"/>
-    <mergeCell ref="I75:J76"/>
-    <mergeCell ref="I77:J78"/>
-    <mergeCell ref="I79:J80"/>
-    <mergeCell ref="I81:J82"/>
-    <mergeCell ref="I83:J84"/>
-    <mergeCell ref="I85:J86"/>
-    <mergeCell ref="I87:J88"/>
-    <mergeCell ref="I89:J90"/>
-    <mergeCell ref="I91:J92"/>
-    <mergeCell ref="I103:J104"/>
-    <mergeCell ref="I105:J106"/>
-    <mergeCell ref="I93:J94"/>
-    <mergeCell ref="I95:J96"/>
-    <mergeCell ref="I97:J98"/>
-    <mergeCell ref="I99:J100"/>
-    <mergeCell ref="I101:J102"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="H7:H106">
-    <cfRule type="expression" dxfId="67" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="0" stopIfTrue="1">
       <formula>AND(H7&lt;&gt;"",NOT($U7))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="1" stopIfTrue="1">
       <formula>AND(H7&lt;&gt;"",$U7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="2" stopIfTrue="1">
       <formula>AND(H7="",NOT($U7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X7:AC106">
-    <cfRule type="expression" dxfId="64" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="3" stopIfTrue="1">
       <formula>NOT(K7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="4" stopIfTrue="1">
       <formula>AND(K7,X7="Medium")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="5" stopIfTrue="1">
       <formula>AND(K7,X7="Low")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:J106">
-    <cfRule type="expression" dxfId="61" priority="0" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="6" stopIfTrue="1">
       <formula>I7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -57414,7 +57530,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
